--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="13500"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Area_all_main" sheetId="1" r:id="rId1"/>
@@ -268,9 +268,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -304,8 +304,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,8 +321,38 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -349,6 +380,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -358,7 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,67 +434,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,49 +469,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,140 +653,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -732,27 +732,40 @@
       </diagonal>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -773,51 +786,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -834,9 +806,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,10 +835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -858,16 +847,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -877,116 +866,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1032,9 +1021,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1387,8 +1373,8 @@
   <sheetPr/>
   <dimension ref="A1:BL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:J11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8:BL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2277,7 +2263,7 @@
       <c r="K19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="10">
         <f>SUM(BJ8:BL8,AR8:AT8)</f>
         <v>0</v>
       </c>

--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介\能介\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
   </bookViews>
   <sheets>
     <sheet name="Area_all_main" sheetId="1" r:id="rId1"/>
     <sheet name="_Area3_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_Area4_day_all" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
     <r>
       <rPr>
@@ -266,14 +271,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,142 +303,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -447,8 +310,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,192 +339,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -732,275 +422,40 @@
       </diagonal>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1009,76 +464,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1365,263 +781,264 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8:BL8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:BL1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="78.75" customWidth="1"/>
-    <col min="14" max="14" width="38.625" customWidth="1"/>
-    <col min="15" max="15" width="26.25" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" customWidth="1"/>
+    <col min="11" max="11" width="12.7265625" customWidth="1"/>
+    <col min="13" max="13" width="78.7265625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="38.6328125" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="26.26953125" hidden="1" customWidth="1"/>
+    <col min="16" max="64" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:52">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="P5" s="13" t="s">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="P5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13" t="s">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AO5" s="13" t="s">
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AO5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AP5" s="13"/>
-      <c r="AQ5" s="13"/>
-      <c r="AR5" s="13"/>
-      <c r="AS5" s="13"/>
-      <c r="AT5" s="13"/>
-      <c r="AU5" s="13" t="s">
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="13"/>
-      <c r="AW5" s="13"/>
-      <c r="AX5" s="13"/>
-      <c r="AY5" s="13"/>
-      <c r="AZ5" s="13"/>
-    </row>
-    <row r="6" ht="70.5" customHeight="1" spans="1:64">
-      <c r="A6" s="5" t="s">
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="AX5" s="7"/>
+      <c r="AY5" s="7"/>
+      <c r="AZ5" s="7"/>
+    </row>
+    <row r="6" spans="1:64" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="15" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13" t="s">
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13" t="s">
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13" t="s">
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13" t="s">
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13" t="s">
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13" t="s">
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="13"/>
-      <c r="AJ6" s="13"/>
-      <c r="AK6" s="13" t="s">
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="13"/>
-      <c r="AM6" s="13"/>
-      <c r="AO6" s="13" t="s">
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AO6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13" t="s">
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="13"/>
-      <c r="AT6" s="13"/>
-      <c r="AU6" s="13" t="s">
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="AV6" s="13"/>
-      <c r="AW6" s="13"/>
-      <c r="AX6" s="13" t="s">
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="AX6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="AY6" s="13"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="13" t="s">
+      <c r="AY6" s="7"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="BB6" s="13"/>
-      <c r="BC6" s="13"/>
-      <c r="BD6" s="13" t="s">
+      <c r="BB6" s="7"/>
+      <c r="BC6" s="7"/>
+      <c r="BD6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="BE6" s="13"/>
-      <c r="BF6" s="13"/>
-      <c r="BG6" s="13" t="s">
+      <c r="BE6" s="7"/>
+      <c r="BF6" s="7"/>
+      <c r="BG6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="BH6" s="13"/>
-      <c r="BI6" s="13"/>
-      <c r="BJ6" s="13" t="s">
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="13"/>
-      <c r="BL6" s="13"/>
-    </row>
-    <row r="7" ht="30" customHeight="1" spans="1:64">
-      <c r="A7" s="5" t="s">
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+    </row>
+    <row r="7" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="10">
         <f>_Area4_day_all!A2</f>
         <v>0</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="8">
         <f>_Area4_day_all!B2</f>
         <v>0</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="16">
+      <c r="J7" s="8"/>
+      <c r="K7" s="8">
         <f>_Area4_day_all!J2</f>
         <v>0</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="11" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="P7" t="s">
@@ -1769,31 +1186,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:64">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
         <f>_Area4_day_all!C2</f>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8">
         <f>_Area4_day_all!D2</f>
         <v>0</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="16">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8">
         <f>_Area4_day_all!K2</f>
         <v>0</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="17" t="s">
+      <c r="L8" s="8"/>
+      <c r="M8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="P8">
@@ -1989,341 +1406,401 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:13">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
         <f>_Area4_day_all!E2</f>
         <v>0</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
         <f>_Area4_day_all!F2</f>
         <v>0</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="16">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8">
         <f>_Area4_day_all!L2</f>
         <v>0</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17"/>
-    </row>
-    <row r="10" ht="30" customHeight="1" spans="1:13">
-      <c r="A10" s="5" t="s">
+      <c r="L9" s="8"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
         <f>_Area3_day_all!A2</f>
         <v>0</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8">
         <f>_Area3_day_all!B2</f>
         <v>0</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="16">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
         <f>_Area3_day_all!F2</f>
         <v>0</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" ht="30" customHeight="1" spans="1:13">
-      <c r="A11" s="5" t="s">
+      <c r="L10" s="8"/>
+      <c r="M10" s="6"/>
+    </row>
+    <row r="11" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8">
         <f>SUM(_Area3_day_all!C2,_Area4_day_all!G2)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8">
         <f>SUM(_Area3_day_all!D2,_Area4_day_all!H2)/2</f>
         <v>0</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="16">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8">
         <f>SUM(_Area3_day_all!G2,_Area4_day_all!M2)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-    </row>
-    <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="5" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="6"/>
+    </row>
+    <row r="12" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6" t="e">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="e">
         <f>SUM(E7*3300+E8*17500+E9*6500)/E11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="e">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8" t="e">
         <f>E12/24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="5" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="17"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="6"/>
+    </row>
+    <row r="14" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="17"/>
-    </row>
-    <row r="15" ht="30" customHeight="1" spans="1:13">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="6"/>
+    </row>
+    <row r="15" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="17"/>
-    </row>
-    <row r="16" ht="30" customHeight="1" spans="1:13">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="6"/>
+    </row>
+    <row r="16" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="17"/>
-    </row>
-    <row r="17" ht="30" customHeight="1" spans="1:13">
-      <c r="A17" s="5" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="6"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="16">
         <f>SUM(V8:X8)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="16">
         <f>SUM(AU8:AW8)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="16">
         <f>SUM(Y8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="16">
         <f>SUM(AX8:AZ8)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="17"/>
-    </row>
-    <row r="18" ht="30" customHeight="1" spans="1:13">
-      <c r="A18" s="5" t="s">
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="16">
         <f>SUM(AB8:AD8)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="16">
         <f>SUM(BA8:BC8)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="16">
         <f>SUM(AE8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="10">
+      <c r="L18" s="16">
         <f>SUM(BD8:BF8)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" ht="30" customHeight="1" spans="1:13">
-      <c r="A19" s="5" t="s">
+      <c r="M18" s="6"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="16">
         <f>SUM(P8:R8,AH8:AJ8)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="16">
         <f>SUM(AO8:AQ8,BG8:BI8)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="16">
         <f>SUM(S8:U8,AK8:AM8)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="10">
+      <c r="L19" s="17">
         <f>SUM(BJ8:BL8,AR8:AT8)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" ht="30" customHeight="1" spans="1:13">
-      <c r="A20" s="5" t="s">
+      <c r="M19" s="6"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" ht="30" customHeight="1" spans="1:4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-    </row>
-    <row r="26" ht="30" customHeight="1" spans="1:4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="A1:L5"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AA5"/>
     <mergeCell ref="AO5:AT5"/>
@@ -2340,98 +1817,37 @@
     <mergeCell ref="AE6:AG6"/>
     <mergeCell ref="AH6:AJ6"/>
     <mergeCell ref="AK6:AM6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A1:L5"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M7" r:id="rId1" display="area-report-controller/AreaDayTagValues(黄色标记部分)"/>
+    <hyperlink ref="M7" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="33.875" customWidth="1"/>
-    <col min="3" max="4" width="36.125" customWidth="1"/>
-    <col min="6" max="6" width="33.875" customWidth="1"/>
-    <col min="7" max="7" width="36.125" customWidth="1"/>
-    <col min="8" max="11" width="43.875" customWidth="1"/>
-    <col min="12" max="14" width="42.75" customWidth="1"/>
-    <col min="16" max="18" width="43.875" customWidth="1"/>
-    <col min="19" max="21" width="42.75" customWidth="1"/>
+    <col min="1" max="2" width="33.90625" customWidth="1"/>
+    <col min="3" max="4" width="36.08984375" customWidth="1"/>
+    <col min="6" max="6" width="33.90625" customWidth="1"/>
+    <col min="7" max="7" width="36.08984375" customWidth="1"/>
+    <col min="8" max="11" width="43.90625" customWidth="1"/>
+    <col min="12" max="14" width="42.7265625" customWidth="1"/>
+    <col min="16" max="18" width="43.90625" customWidth="1"/>
+    <col min="19" max="21" width="42.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2488,41 +1904,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY1"/>
   <sheetViews>
     <sheetView topLeftCell="AU1" workbookViewId="0">
       <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="31.625" customWidth="1"/>
+    <col min="1" max="6" width="31.6328125" customWidth="1"/>
     <col min="7" max="8" width="35" customWidth="1"/>
-    <col min="10" max="12" width="31.625" customWidth="1"/>
+    <col min="10" max="12" width="31.6328125" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
-    <col min="14" max="17" width="43.875" customWidth="1"/>
-    <col min="18" max="20" width="42.75" customWidth="1"/>
-    <col min="21" max="23" width="43.875" customWidth="1"/>
-    <col min="24" max="26" width="42.75" customWidth="1"/>
-    <col min="27" max="29" width="43.875" customWidth="1"/>
-    <col min="30" max="32" width="42.75" customWidth="1"/>
-    <col min="34" max="36" width="43.875" customWidth="1"/>
-    <col min="37" max="39" width="42.75" customWidth="1"/>
-    <col min="40" max="42" width="43.875" customWidth="1"/>
-    <col min="43" max="45" width="42.75" customWidth="1"/>
-    <col min="46" max="48" width="43.875" customWidth="1"/>
-    <col min="49" max="51" width="42.75" customWidth="1"/>
+    <col min="14" max="17" width="43.90625" customWidth="1"/>
+    <col min="18" max="20" width="42.7265625" customWidth="1"/>
+    <col min="21" max="23" width="43.90625" customWidth="1"/>
+    <col min="24" max="26" width="42.7265625" customWidth="1"/>
+    <col min="27" max="29" width="43.90625" customWidth="1"/>
+    <col min="30" max="32" width="42.7265625" customWidth="1"/>
+    <col min="34" max="36" width="43.90625" customWidth="1"/>
+    <col min="37" max="39" width="42.7265625" customWidth="1"/>
+    <col min="40" max="42" width="43.90625" customWidth="1"/>
+    <col min="43" max="45" width="42.7265625" customWidth="1"/>
+    <col min="46" max="48" width="43.90625" customWidth="1"/>
+    <col min="49" max="51" width="42.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2669,7 +2084,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -1,50 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介\能介\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Area_all_main" sheetId="1" r:id="rId1"/>
     <sheet name="_Area3_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_Area4_day_all" sheetId="3" r:id="rId3"/>
+    <sheet name="_meatadata" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>煤气柜作业区混合煤气情况表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-2018年9月11日</t>
-    </r>
+    <t>煤气柜作业区混合煤气情况表</t>
   </si>
   <si>
     <t>三柜区日累计</t>
@@ -109,22 +84,22 @@
     <t>3#</t>
   </si>
   <si>
-    <t>焦炉煤气（万m4)</t>
+    <t>焦炉煤气（万m3)</t>
   </si>
   <si>
     <t>area-report-controller/AreaMonthTagValues（红色标记部分）</t>
   </si>
   <si>
-    <t>转炉煤气（万m5)</t>
-  </si>
-  <si>
-    <t>转炉煤气外供高炉管网（万m6)</t>
-  </si>
-  <si>
-    <t>混合煤气外供量（万m7)</t>
-  </si>
-  <si>
-    <t>平均热值（KJ/m8)</t>
+    <t>转炉煤气（万m3)</t>
+  </si>
+  <si>
+    <t>转炉煤气外供高炉管网（万m3)</t>
+  </si>
+  <si>
+    <t>混合煤气外供量（万m3)</t>
+  </si>
+  <si>
+    <t>平均热值（KJ/m3)</t>
   </si>
   <si>
     <t>转炉煤气回收炉数（炉）</t>
@@ -272,6 +247,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -295,27 +274,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -344,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -382,12 +356,51 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal style="thin">
+        <color auto="1"/>
+      </diagonal>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -399,33 +412,45 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
-    </border>
-    <border diagonalUp="1">
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
     </border>
     <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -435,66 +460,86 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -787,258 +832,419 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BL26"/>
+  <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:BL1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" customWidth="1"/>
-    <col min="13" max="13" width="78.7265625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="38.6328125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="26.26953125" hidden="1" customWidth="1"/>
-    <col min="16" max="64" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="13" max="13" width="78.75" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="38.625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="26.25" hidden="1" customWidth="1"/>
+    <col min="16" max="64" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="9"/>
+      <c r="AR1" s="9"/>
+      <c r="AS1" s="9"/>
+      <c r="AT1" s="9"/>
+      <c r="AU1" s="9"/>
+      <c r="AV1" s="9"/>
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="9"/>
+      <c r="AU2" s="9"/>
+      <c r="AV2" s="9"/>
+      <c r="AW2" s="9"/>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="9"/>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9"/>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
+      <c r="AS3" s="9"/>
+      <c r="AT3" s="9"/>
+      <c r="AU3" s="9"/>
+      <c r="AV3" s="9"/>
+      <c r="AW3" s="9"/>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+    </row>
+    <row r="4" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <f>_meatadata!B1</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="P5" s="7" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="P5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7" t="s">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AO5" s="7" t="s">
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AO5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7" t="s">
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="7"/>
-      <c r="AW5" s="7"/>
-      <c r="AX5" s="7"/>
-      <c r="AY5" s="7"/>
-      <c r="AZ5" s="7"/>
-    </row>
-    <row r="6" spans="1:64" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="16"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="16"/>
+    </row>
+    <row r="6" spans="1:65" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="17"/>
+      <c r="M6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7" t="s">
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7" t="s">
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7" t="s">
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7" t="s">
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7" t="s">
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="7"/>
-      <c r="AJ6" s="7"/>
-      <c r="AK6" s="7" t="s">
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="16"/>
+      <c r="AK6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="7"/>
-      <c r="AO6" s="7" t="s">
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AO6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="7"/>
-      <c r="AQ6" s="7"/>
-      <c r="AR6" s="7" t="s">
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+      <c r="AR6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="7"/>
-      <c r="AT6" s="7"/>
-      <c r="AU6" s="7" t="s">
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AV6" s="7"/>
-      <c r="AW6" s="7"/>
-      <c r="AX6" s="7" t="s">
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="AY6" s="7"/>
-      <c r="AZ6" s="7"/>
-      <c r="BA6" s="7" t="s">
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="16"/>
+      <c r="BA6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="BB6" s="7"/>
-      <c r="BC6" s="7"/>
-      <c r="BD6" s="7" t="s">
+      <c r="BB6" s="16"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="BE6" s="7"/>
-      <c r="BF6" s="7"/>
-      <c r="BG6" s="7" t="s">
+      <c r="BE6" s="16"/>
+      <c r="BF6" s="16"/>
+      <c r="BG6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="BH6" s="7"/>
-      <c r="BI6" s="7"/>
-      <c r="BJ6" s="7" t="s">
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="7"/>
-      <c r="BL6" s="7"/>
-    </row>
-    <row r="7" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+    </row>
+    <row r="7" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="10">
-        <f>_Area4_day_all!A2</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="8">
-        <f>_Area4_day_all!B2</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8">
-        <f>_Area4_day_all!J2</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="3" t="s">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="20">
+        <f>_Area4_day_all!A2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23">
+        <f>_Area4_day_all!B2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23">
+        <f>_Area4_day_all!J2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="5" t="s">
         <v>17</v>
       </c>
       <c r="P7" t="s">
@@ -1186,31 +1392,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8">
-        <f>_Area4_day_all!C2</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8">
-        <f>_Area4_day_all!D2</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8">
-        <f>_Area4_day_all!K2</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="6" t="s">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="23">
+        <f>_Area4_day_all!C2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23">
+        <f>_Area4_day_all!D2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23">
+        <f>_Area4_day_all!K2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="23"/>
+      <c r="M8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="P8">
@@ -1406,401 +1612,341 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8">
-        <f>_Area4_day_all!E2</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
-        <f>_Area4_day_all!F2</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8">
-        <f>_Area4_day_all!L2</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="23">
+        <f>_Area4_day_all!E2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23">
+        <f>_Area4_day_all!F2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23">
+        <f>_Area4_day_all!L2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8">
-        <f>_Area3_day_all!A2</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8">
-        <f>_Area3_day_all!B2</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8">
-        <f>_Area3_day_all!F2</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="6"/>
-    </row>
-    <row r="11" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="23">
+        <f>_Area3_day_all!A2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23">
+        <f>_Area3_day_all!B2/10000</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23">
+        <f>IFERROR(_Area3_day_all!F2/10000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="23"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8">
-        <f>SUM(_Area3_day_all!C2,_Area4_day_all!G2)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8">
-        <f>SUM(_Area3_day_all!D2,_Area4_day_all!H2)/2</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8">
-        <f>SUM(_Area3_day_all!G2,_Area4_day_all!M2)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="6"/>
-    </row>
-    <row r="12" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="23">
+        <f>IFERROR(SUM(_Area3_day_all!C2,_Area4_day_all!G2)/10000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23">
+        <f>IFERROR(SUM(_Area3_day_all!D2,_Area4_day_all!H2)/2/10000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23">
+        <f>IFERROR(SUM(_Area3_day_all!G2,_Area4_day_all!M2)/10000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="23"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="e">
-        <f>SUM(E7*3300+E8*17500+E9*6500)/E11</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8" t="e">
-        <f>E12/24</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="20" t="str">
+        <f>IFERROR(SUM(E7*3300+E8*17500+E9*6500)/E11/10000,"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23" t="str">
+        <f>IFERROR(E12/24/10000,"")</f>
+        <v/>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="6"/>
-    </row>
-    <row r="14" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="15" t="s">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="4">
         <f>SUM(V8:X8)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="4">
         <f>SUM(AU8:AW8)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="16">
+      <c r="J17" s="4">
         <f>SUM(Y8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="4">
         <f>SUM(AX8:AZ8)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="6"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="15" t="s">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="4">
         <f>SUM(AB8:AD8)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="4">
         <f>SUM(BA8:BC8)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="4">
         <f>SUM(AE8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="4">
         <f>SUM(BD8:BF8)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="15" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="4">
         <f>SUM(P8:R8,AH8:AJ8)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="4">
         <f>SUM(AO8:AQ8,BG8:BI8)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="16">
+      <c r="J19" s="4">
         <f>SUM(S8:U8,AK8:AM8)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="8">
         <f>SUM(BJ8:BL8,AR8:AT8)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
-    <mergeCell ref="A1:L5"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
+  <mergeCells count="77">
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AA5"/>
     <mergeCell ref="AO5:AT5"/>
@@ -1817,8 +1963,69 @@
     <mergeCell ref="AE6:AG6"/>
     <mergeCell ref="AH6:AJ6"/>
     <mergeCell ref="AK6:AM6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A1:BM3"/>
+    <mergeCell ref="A4:L5"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="M7" r:id="rId1"/>
   </hyperlinks>
@@ -1831,23 +2038,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="4" width="36.08984375" customWidth="1"/>
-    <col min="6" max="6" width="33.90625" customWidth="1"/>
-    <col min="7" max="7" width="36.08984375" customWidth="1"/>
-    <col min="8" max="11" width="43.90625" customWidth="1"/>
-    <col min="12" max="14" width="42.7265625" customWidth="1"/>
-    <col min="16" max="18" width="43.90625" customWidth="1"/>
-    <col min="19" max="21" width="42.7265625" customWidth="1"/>
+    <col min="1" max="2" width="33.875" customWidth="1"/>
+    <col min="3" max="4" width="36.125" customWidth="1"/>
+    <col min="6" max="6" width="33.875" customWidth="1"/>
+    <col min="7" max="7" width="36.125" customWidth="1"/>
+    <col min="8" max="11" width="43.875" customWidth="1"/>
+    <col min="12" max="14" width="42.75" customWidth="1"/>
+    <col min="16" max="18" width="43.875" customWidth="1"/>
+    <col min="19" max="21" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1904,7 +2111,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1917,27 +2124,27 @@
       <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="31.6328125" customWidth="1"/>
+    <col min="1" max="6" width="31.625" customWidth="1"/>
     <col min="7" max="8" width="35" customWidth="1"/>
-    <col min="10" max="12" width="31.6328125" customWidth="1"/>
+    <col min="10" max="12" width="31.625" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
-    <col min="14" max="17" width="43.90625" customWidth="1"/>
-    <col min="18" max="20" width="42.7265625" customWidth="1"/>
-    <col min="21" max="23" width="43.90625" customWidth="1"/>
-    <col min="24" max="26" width="42.7265625" customWidth="1"/>
-    <col min="27" max="29" width="43.90625" customWidth="1"/>
-    <col min="30" max="32" width="42.7265625" customWidth="1"/>
-    <col min="34" max="36" width="43.90625" customWidth="1"/>
-    <col min="37" max="39" width="42.7265625" customWidth="1"/>
-    <col min="40" max="42" width="43.90625" customWidth="1"/>
-    <col min="43" max="45" width="42.7265625" customWidth="1"/>
-    <col min="46" max="48" width="43.90625" customWidth="1"/>
-    <col min="49" max="51" width="42.7265625" customWidth="1"/>
+    <col min="14" max="17" width="43.875" customWidth="1"/>
+    <col min="18" max="20" width="42.75" customWidth="1"/>
+    <col min="21" max="23" width="43.875" customWidth="1"/>
+    <col min="24" max="26" width="42.75" customWidth="1"/>
+    <col min="27" max="29" width="43.875" customWidth="1"/>
+    <col min="30" max="32" width="42.75" customWidth="1"/>
+    <col min="34" max="36" width="43.875" customWidth="1"/>
+    <col min="37" max="39" width="42.75" customWidth="1"/>
+    <col min="40" max="42" width="43.875" customWidth="1"/>
+    <col min="43" max="45" width="42.75" customWidth="1"/>
+    <col min="46" max="48" width="43.875" customWidth="1"/>
+    <col min="49" max="51" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2084,7 +2291,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -247,9 +247,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -263,6 +262,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,12 +270,14 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -472,9 +474,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -482,37 +481,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -529,6 +504,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -835,7 +837,7 @@
   <dimension ref="A1:BM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L5"/>
+      <selection activeCell="BP13" sqref="BP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,6 +845,7 @@
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="78.75" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="38.625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="26.25" hidden="1" customWidth="1"/>
@@ -850,401 +853,401 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+      <c r="AG2" s="16"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+      <c r="AK2" s="16"/>
+      <c r="AL2" s="16"/>
+      <c r="AM2" s="16"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9"/>
-      <c r="BM3" s="9"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
+      <c r="AI3" s="16"/>
+      <c r="AJ3" s="16"/>
+      <c r="AK3" s="16"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="16"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="16"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="16"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
     </row>
     <row r="4" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
-        <f>_meatadata!B1</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
+      <c r="A4" s="19">
+        <f>_meatadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="P5" s="16" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="P5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16" t="s">
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AO5" s="16" t="s">
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AO5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16" t="s">
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9"/>
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="16"/>
+      <c r="AV5" s="9"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
     </row>
     <row r="6" spans="1:65" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="6" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16" t="s">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16" t="s">
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16" t="s">
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16" t="s">
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16" t="s">
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AO6" s="16" t="s">
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AO6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16" t="s">
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16" t="s">
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16" t="s">
+      <c r="AV6" s="9"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16" t="s">
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="16"/>
-      <c r="BD6" s="16" t="s">
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="BE6" s="16"/>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="16" t="s">
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="16" t="s">
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="16"/>
-      <c r="BL6" s="16"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9"/>
     </row>
     <row r="7" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11">
         <f>_Area4_day_all!A2/10000</f>
         <v>0</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14">
         <f>_Area4_day_all!B2/10000</f>
         <v>0</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23">
+      <c r="J7" s="14"/>
+      <c r="K7" s="11">
         <f>_Area4_day_all!J2/10000</f>
         <v>0</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="13"/>
+      <c r="M7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="P7" t="s">
@@ -1393,30 +1396,30 @@
       </c>
     </row>
     <row r="8" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="23">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="14">
         <f>_Area4_day_all!C2/10000</f>
         <v>0</v>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23">
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14">
         <f>_Area4_day_all!D2/10000</f>
         <v>0</v>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23">
+      <c r="J8" s="14"/>
+      <c r="K8" s="11">
         <f>_Area4_day_all!K2/10000</f>
         <v>0</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="13"/>
+      <c r="M8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="P8">
@@ -1613,181 +1616,181 @@
       </c>
     </row>
     <row r="9" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="23">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="14">
         <f>_Area4_day_all!E2/10000</f>
         <v>0</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23">
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14">
         <f>_Area4_day_all!F2/10000</f>
         <v>0</v>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23">
+      <c r="J9" s="14"/>
+      <c r="K9" s="11">
         <f>_Area4_day_all!L2/10000</f>
         <v>0</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="23">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="14">
         <f>_Area3_day_all!A2/10000</f>
         <v>0</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14">
         <f>_Area3_day_all!B2/10000</f>
         <v>0</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23">
+      <c r="J10" s="14"/>
+      <c r="K10" s="11">
         <f>IFERROR(_Area3_day_all!F2/10000,"")</f>
         <v>0</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="23">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="14">
         <f>IFERROR(SUM(_Area3_day_all!C2,_Area4_day_all!G2)/10000,"")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14">
         <f>IFERROR(SUM(_Area3_day_all!D2,_Area4_day_all!H2)/2/10000,"")</f>
         <v>0</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23">
+      <c r="J11" s="14"/>
+      <c r="K11" s="11">
         <f>IFERROR(SUM(_Area3_day_all!G2,_Area4_day_all!M2)/10000,"")</f>
         <v>0</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20" t="str">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="str">
         <f>IFERROR(SUM(E7*3300+E8*17500+E9*6500)/E11/10000,"")</f>
         <v/>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23" t="str">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14" t="str">
         <f>IFERROR(E12/24/10000,"")</f>
         <v/>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="7"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="7"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="7"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="7"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1816,15 +1819,15 @@
         <f>SUM(AX8:AZ8)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="3" t="s">
         <v>32</v>
       </c>
@@ -1853,15 +1856,15 @@
         <f>SUM(BD8:BF8)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="3" t="s">
         <v>32</v>
       </c>
@@ -1886,67 +1889,128 @@
       <c r="K19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="7">
         <f>SUM(BJ8:BL8,AR8:AT8)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="7"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="A1:BM3"/>
+    <mergeCell ref="A4:L5"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AA5"/>
     <mergeCell ref="AO5:AT5"/>
@@ -1963,67 +2027,6 @@
     <mergeCell ref="AE6:AG6"/>
     <mergeCell ref="AH6:AJ6"/>
     <mergeCell ref="AK6:AM6"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A1:BM3"/>
-    <mergeCell ref="A4:L5"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Area_all_main" sheetId="1" r:id="rId1"/>
     <sheet name="_Area3_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_Area4_day_all" sheetId="3" r:id="rId3"/>
-    <sheet name="_meatadata" sheetId="4" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>煤气柜作业区混合煤气情况表</t>
   </si>
@@ -246,11 +246,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +266,18 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="仿宋"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -270,31 +285,160 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
-      <name val="仿宋"/>
-      <family val="3"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,13 +463,245 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -340,6 +716,43 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -380,6 +793,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalUp="1">
       <left style="thin">
         <color auto="1"/>
@@ -412,132 +862,382 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -828,19 +1528,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BP13" sqref="BP13"/>
+      <selection activeCell="H17" sqref="H17:H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
@@ -852,402 +1552,402 @@
     <col min="16" max="64" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16"/>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="16"/>
-      <c r="BM1" s="16"/>
+    <row r="1" spans="1:65">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16"/>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16"/>
-      <c r="BM2" s="16"/>
+    <row r="2" spans="1:65">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="16"/>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="16"/>
-      <c r="BA3" s="16"/>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="16"/>
-      <c r="BE3" s="16"/>
-      <c r="BF3" s="16"/>
-      <c r="BG3" s="16"/>
-      <c r="BH3" s="16"/>
-      <c r="BI3" s="16"/>
-      <c r="BJ3" s="16"/>
-      <c r="BK3" s="16"/>
-      <c r="BL3" s="16"/>
-      <c r="BM3" s="16"/>
+    <row r="3" spans="1:65">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
     </row>
-    <row r="4" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
-        <f>_meatadata!B2</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+    <row r="4" customHeight="1" spans="1:12">
+      <c r="A4" s="4">
+        <f>_metadata!B2</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="P5" s="9" t="s">
+    <row r="5" customHeight="1" spans="1:52">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="21"/>
+      <c r="P5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9" t="s">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AO5" s="9" t="s">
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AO5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
-      <c r="AS5" s="9"/>
-      <c r="AT5" s="9"/>
-      <c r="AU5" s="9" t="s">
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="9"/>
-      <c r="AW5" s="9"/>
-      <c r="AX5" s="9"/>
-      <c r="AY5" s="9"/>
-      <c r="AZ5" s="9"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="19"/>
     </row>
-    <row r="6" spans="1:65" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    <row r="6" ht="70.5" customHeight="1" spans="1:64">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="5" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9" t="s">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9" t="s">
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9" t="s">
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9" t="s">
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9" t="s">
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9" t="s">
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="9" t="s">
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AO6" s="9" t="s">
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AO6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9" t="s">
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="9"/>
-      <c r="AT6" s="9"/>
-      <c r="AU6" s="9" t="s">
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="AV6" s="9"/>
-      <c r="AW6" s="9"/>
-      <c r="AX6" s="9" t="s">
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AY6" s="9"/>
-      <c r="AZ6" s="9"/>
-      <c r="BA6" s="9" t="s">
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BB6" s="9"/>
-      <c r="BC6" s="9"/>
-      <c r="BD6" s="9" t="s">
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BE6" s="9"/>
-      <c r="BF6" s="9"/>
-      <c r="BG6" s="9" t="s">
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="BH6" s="9"/>
-      <c r="BI6" s="9"/>
-      <c r="BJ6" s="9" t="s">
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="9"/>
-      <c r="BL6" s="9"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="19"/>
     </row>
-    <row r="7" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" ht="30" customHeight="1" spans="1:64">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9">
         <f>_Area4_day_all!A2/10000</f>
         <v>0</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="23">
         <f>_Area4_day_all!B2/10000</f>
         <v>0</v>
       </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="11">
+      <c r="J7" s="23"/>
+      <c r="K7" s="9">
         <f>_Area4_day_all!J2/10000</f>
         <v>0</v>
       </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="8" t="s">
+      <c r="L7" s="11"/>
+      <c r="M7" s="17" t="s">
         <v>17</v>
       </c>
       <c r="P7" t="s">
@@ -1395,31 +2095,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" ht="30" customHeight="1" spans="1:64">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9">
         <f>_Area4_day_all!C2/10000</f>
         <v>0</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="23">
         <f>_Area4_day_all!D2/10000</f>
         <v>0</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="11">
+      <c r="J8" s="23"/>
+      <c r="K8" s="9">
         <f>_Area4_day_all!K2/10000</f>
         <v>0</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="6" t="s">
+      <c r="L8" s="11"/>
+      <c r="M8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="P8">
@@ -1615,293 +2315,293 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" ht="30" customHeight="1" spans="1:13">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="14">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9">
         <f>_Area4_day_all!E2/10000</f>
         <v>0</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="23">
         <f>_Area4_day_all!F2/10000</f>
         <v>0</v>
       </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="11">
+      <c r="J9" s="23"/>
+      <c r="K9" s="9">
         <f>_Area4_day_all!L2/10000</f>
         <v>0</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="6"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="24"/>
     </row>
-    <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" ht="30" customHeight="1" spans="1:13">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="14">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9">
         <f>_Area3_day_all!A2/10000</f>
         <v>0</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="23">
         <f>_Area3_day_all!B2/10000</f>
         <v>0</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="11">
+      <c r="J10" s="23"/>
+      <c r="K10" s="9">
         <f>IFERROR(_Area3_day_all!F2/10000,"")</f>
         <v>0</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="6"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="24"/>
     </row>
-    <row r="11" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" ht="30" customHeight="1" spans="1:13">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="14">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9">
         <f>IFERROR(SUM(_Area3_day_all!C2,_Area4_day_all!G2)/10000,"")</f>
         <v>0</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="23">
         <f>IFERROR(SUM(_Area3_day_all!D2,_Area4_day_all!H2)/2/10000,"")</f>
         <v>0</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="11">
+      <c r="J11" s="23"/>
+      <c r="K11" s="9">
         <f>IFERROR(SUM(_Area3_day_all!G2,_Area4_day_all!M2)/10000,"")</f>
         <v>0</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="6"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" ht="30" customHeight="1" spans="1:13">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="11" t="str">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="12" t="str">
         <f>IFERROR(SUM(E7*3300+E8*17500+E9*6500)/E11/10000,"")</f>
         <v/>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14" t="str">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="25" t="str">
         <f>IFERROR(E12/24/10000,"")</f>
         <v/>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="6"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="24"/>
     </row>
-    <row r="13" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" ht="30" customHeight="1" spans="1:13">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="24"/>
     </row>
-    <row r="14" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" ht="30" customHeight="1" spans="1:13">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="6"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="24"/>
     </row>
-    <row r="15" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="15" ht="30" customHeight="1" spans="1:13">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="6"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="24"/>
     </row>
-    <row r="16" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+    <row r="16" ht="30" customHeight="1" spans="1:13">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="6"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="24"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" ht="30" customHeight="1" spans="1:13">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="16">
         <f>SUM(V8:X8)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="16">
         <f>SUM(AU8:AW8)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="27">
         <f>SUM(Y8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="27">
         <f>SUM(AX8:AZ8)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="24"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="18" ht="30" customHeight="1" spans="1:13">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="16">
         <f>SUM(AB8:AD8)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="16">
         <f>SUM(BA8:BC8)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="27">
         <f>SUM(AE8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="27">
         <f>SUM(BD8:BF8)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="24"/>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" ht="30" customHeight="1" spans="1:13">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="16">
         <f>SUM(P8:R8,AH8:AJ8)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="16">
         <f>SUM(AO8:AQ8,BG8:BI8)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="27">
         <f>SUM(S8:U8,AK8:AM8)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="28">
         <f>SUM(BJ8:BL8,AR8:AT8)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="24"/>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" ht="30" customHeight="1" spans="1:13">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="17"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -1910,107 +2610,46 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="6"/>
+      <c r="M20" s="24"/>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+    <row r="21" ht="30" customHeight="1" spans="1:4">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+    <row r="22" ht="30" customHeight="1" spans="1:4">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+    <row r="23" ht="30" customHeight="1" spans="1:4">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+    <row r="24" ht="30" customHeight="1" spans="1:4">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+    <row r="25" ht="30" customHeight="1" spans="1:4">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+    <row r="26" ht="30" customHeight="1" spans="1:4">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A1:BM3"/>
-    <mergeCell ref="A4:L5"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E20:L20"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="BD6:BF6"/>
-    <mergeCell ref="BG6:BI6"/>
-    <mergeCell ref="BJ6:BL6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AA5"/>
     <mergeCell ref="AO5:AT5"/>
@@ -2027,25 +2666,87 @@
     <mergeCell ref="AE6:AG6"/>
     <mergeCell ref="AH6:AJ6"/>
     <mergeCell ref="AK6:AM6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BD6:BF6"/>
+    <mergeCell ref="BG6:BI6"/>
+    <mergeCell ref="BJ6:BL6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A1:BM3"/>
+    <mergeCell ref="A4:L5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M7" r:id="rId1"/>
+    <hyperlink ref="M7" r:id="rId1" display="area-report-controller/AreaDayTagValues(黄色标记部分)"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="33.875" customWidth="1"/>
     <col min="3" max="4" width="36.125" customWidth="1"/>
@@ -2057,7 +2758,7 @@
     <col min="19" max="21" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2114,20 +2815,21 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AY1"/>
   <sheetViews>
     <sheetView topLeftCell="AU1" workbookViewId="0">
       <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="6" width="31.625" customWidth="1"/>
     <col min="7" max="8" width="35" customWidth="1"/>
@@ -2147,7 +2849,7 @@
     <col min="49" max="51" width="42.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2294,22 +2996,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -248,13 +248,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,16 +282,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -301,6 +304,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -309,15 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,7 +366,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,58 +375,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,6 +396,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -438,7 +431,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -465,8 +458,86 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -477,7 +548,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,174 +638,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -666,11 +653,11 @@
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -679,19 +666,19 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color theme="1"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,7 +687,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,43 +703,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,10 +746,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -807,26 +757,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,13 +783,26 @@
       </diagonal>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -903,21 +851,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -929,15 +862,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -974,215 +898,200 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1446,7 @@
   <dimension ref="A1:BM26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H19"/>
+      <selection activeCell="K11" sqref="K11:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1545,7 +1454,6 @@
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="12.25" customWidth="1"/>
     <col min="11" max="11" width="12.75" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
     <col min="13" max="13" width="78.75" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="38.625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="26.25" hidden="1" customWidth="1"/>
@@ -1756,9 +1664,9 @@
       <c r="BM3" s="3"/>
     </row>
     <row r="4" customHeight="1" spans="1:12">
-      <c r="A4" s="4">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="A4" s="4" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1770,7 +1678,7 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="20"/>
+      <c r="L4" s="18"/>
     </row>
     <row r="5" customHeight="1" spans="1:52">
       <c r="A5" s="6"/>
@@ -1784,39 +1692,39 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
-      <c r="L5" s="21"/>
-      <c r="P5" s="19" t="s">
+      <c r="L5" s="19"/>
+      <c r="P5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19" t="s">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AO5" s="19" t="s">
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AO5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="19"/>
-      <c r="AU5" s="19" t="s">
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="19"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="19"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
     </row>
     <row r="6" ht="70.5" customHeight="1" spans="1:64">
       <c r="A6" s="8" t="s">
@@ -1839,89 +1747,89 @@
         <v>8</v>
       </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19" t="s">
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19" t="s">
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19" t="s">
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19" t="s">
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19" t="s">
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19" t="s">
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AO6" s="19" t="s">
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AO6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19" t="s">
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19" t="s">
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19" t="s">
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="19"/>
-      <c r="BA6" s="19" t="s">
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="BB6" s="19"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="19" t="s">
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19" t="s">
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19" t="s">
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="19"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="17"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:64">
       <c r="A7" s="8" t="s">
@@ -1930,24 +1838,24 @@
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="9">
-        <f>_Area4_day_all!A2/10000</f>
-        <v>0</v>
+      <c r="E7" s="9" t="str">
+        <f>IF(_Area4_day_all!A2="","",_Area4_day_all!A2/10000)</f>
+        <v/>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="23">
-        <f>_Area4_day_all!B2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="9">
-        <f>_Area4_day_all!J2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="L7" s="11"/>
-      <c r="M7" s="17" t="s">
+      <c r="I7" s="12" t="str">
+        <f>IF(_Area4_day_all!B2="","",_Area4_day_all!B2/10000)</f>
+        <v/>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="str">
+        <f>IF(_Area4_day_all!J2="","",_Area4_day_all!J2/10000)</f>
+        <v/>
+      </c>
+      <c r="L7" s="12"/>
+      <c r="M7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="P7" t="s">
@@ -2102,24 +2010,24 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="9">
-        <f>_Area4_day_all!C2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="23">
-        <f>_Area4_day_all!D2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="9">
-        <f>_Area4_day_all!K2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="24" t="s">
+      <c r="E8" s="12" t="str">
+        <f>IF(_Area4_day_all!C2="","",_Area4_day_all!C2/10000)</f>
+        <v/>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="str">
+        <f>IF(_Area4_day_all!D2="","",_Area4_day_all!D2/10000)</f>
+        <v/>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="str">
+        <f>IF(_Area4_day_all!K2="","",_Area4_day_all!K2/10000)</f>
+        <v/>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P8">
@@ -2322,24 +2230,24 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-      <c r="E9" s="9">
-        <f>_Area4_day_all!E2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="23">
-        <f>_Area4_day_all!F2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="9">
-        <f>_Area4_day_all!L2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="24"/>
+      <c r="E9" s="12" t="str">
+        <f>IF(_Area4_day_all!E2="","",_Area4_day_all!E2/10000)</f>
+        <v/>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="str">
+        <f>IF(_Area4_day_all!F2="","",_Area4_day_all!F2/10000)</f>
+        <v/>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="str">
+        <f>IF(_Area4_day_all!L2="","",_Area4_day_all!L2/10000)</f>
+        <v/>
+      </c>
+      <c r="L9" s="12"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:13">
       <c r="A10" s="8" t="s">
@@ -2348,24 +2256,24 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="9">
-        <f>_Area3_day_all!A2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="23">
-        <f>_Area3_day_all!B2/10000</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="9">
-        <f>IFERROR(_Area3_day_all!F2/10000,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="11"/>
-      <c r="M10" s="24"/>
+      <c r="E10" s="12" t="str">
+        <f>IF(_Area3_day_all!A2="","",_Area3_day_all!A2/10000)</f>
+        <v/>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="str">
+        <f>IF(_Area3_day_all!B2="","",_Area3_day_all!B2/10000)</f>
+        <v/>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="str">
+        <f>IF(_Area3_day_all!F2="","",_Area3_day_all!F2/10000)</f>
+        <v/>
+      </c>
+      <c r="L10" s="12"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:13">
       <c r="A11" s="8" t="s">
@@ -2374,24 +2282,24 @@
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-      <c r="E11" s="9">
-        <f>IFERROR(SUM(_Area3_day_all!C2,_Area4_day_all!G2)/10000,"")</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="23">
-        <f>IFERROR(SUM(_Area3_day_all!D2,_Area4_day_all!H2)/2/10000,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="9">
-        <f>IFERROR(SUM(_Area3_day_all!G2,_Area4_day_all!M2)/10000,"")</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="11"/>
-      <c r="M11" s="24"/>
+      <c r="E11" s="12" t="str">
+        <f>IFERROR(SUM(IF(_Area3_day_all!C2="","",_Area3_day_all!C2),IF(_Area4_day_all!G2="","",_Area4_day_all!G2))/10000,"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="str">
+        <f>IFERROR(SUM(IF(_Area3_day_all!D2="","",_Area3_day_all!D2),IF(_Area4_day_all!H2="","",_Area4_day_all!H2))/10000,"")</f>
+        <v/>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="str">
+        <f>IFERROR(SUM(IF(_Area3_day_all!G2="","",_Area3_day_all!G2),IF(_Area4_day_all!M2="","",_Area4_day_all!M2))/10000,"")</f>
+        <v/>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
       <c r="A12" s="8" t="s">
@@ -2400,21 +2308,21 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-      <c r="E12" s="12" t="str">
+      <c r="E12" s="9" t="str">
         <f>IFERROR(SUM(E7*3300+E8*17500+E9*6500)/E11/10000,"")</f>
         <v/>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="25" t="str">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12" t="str">
         <f>IFERROR(E12/24/10000,"")</f>
         <v/>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="24"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="21"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
       <c r="A13" s="8" t="s">
@@ -2431,7 +2339,7 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="24"/>
+      <c r="M13" s="21"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
       <c r="A14" s="8" t="s">
@@ -2448,7 +2356,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="24"/>
+      <c r="M14" s="21"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:13">
       <c r="A15" s="8" t="s">
@@ -2465,7 +2373,7 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="24"/>
+      <c r="M15" s="21"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:13">
       <c r="A16" s="8" t="s">
@@ -2482,7 +2390,7 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="24"/>
+      <c r="M16" s="21"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:13">
       <c r="A17" s="8" t="s">
@@ -2491,35 +2399,35 @@
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="14">
         <f>SUM(V8:X8)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="14">
         <f>SUM(AU8:AW8)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="14">
         <f>SUM(Y8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="K17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="14">
         <f>SUM(AX8:AZ8)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="24"/>
+      <c r="M17" s="21"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:13">
       <c r="A18" s="8" t="s">
@@ -2528,35 +2436,35 @@
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <f>SUM(AB8:AD8)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="14">
         <f>SUM(BA8:BC8)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="14">
         <f>SUM(AE8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="K18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="14">
         <f>SUM(BD8:BF8)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="24"/>
+      <c r="M18" s="21"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:13">
       <c r="A19" s="8" t="s">
@@ -2565,35 +2473,35 @@
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="14">
         <f>SUM(P8:R8,AH8:AJ8)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="16">
+      <c r="H19" s="14">
         <f>SUM(AO8:AQ8,BG8:BI8)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="14">
         <f>SUM(S8:U8,AK8:AM8)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="K19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="23">
         <f>SUM(BJ8:BL8,AR8:AT8)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="24"/>
+      <c r="M19" s="21"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:13">
       <c r="A20" s="8" t="s">
@@ -2602,51 +2510,51 @@
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="24"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:4">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:4">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:4">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:4">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:4">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:4">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="77">
@@ -3007,7 +2915,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\韶钢\程序设计\报表模板\能介20181216\能介\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12470"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Area_all_main" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="_Area4_day_all" sheetId="3" r:id="rId3"/>
     <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>煤气柜作业区混合煤气情况表</t>
   </si>
@@ -251,11 +246,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,39 +265,172 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="仿宋"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,8 +455,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -464,15 +781,287 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,74 +1071,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -836,425 +1436,425 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BN15" sqref="BN15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" customWidth="1"/>
-    <col min="11" max="11" width="12.7265625" customWidth="1"/>
-    <col min="13" max="13" width="78.7265625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="38.6328125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="26.26953125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.725" customWidth="1"/>
+    <col min="8" max="8" width="12.2666666666667" customWidth="1"/>
+    <col min="11" max="11" width="12.725" customWidth="1"/>
+    <col min="13" max="13" width="78.725" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="38.6333333333333" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="26.2666666666667" hidden="1" customWidth="1"/>
     <col min="16" max="64" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:65">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="9"/>
-      <c r="AQ1" s="9"/>
-      <c r="AR1" s="9"/>
-      <c r="AS1" s="9"/>
-      <c r="AT1" s="9"/>
-      <c r="AU1" s="9"/>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9"/>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
+    <row r="2" spans="1:65">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+      <c r="AW2" s="3"/>
+      <c r="AX2" s="3"/>
+      <c r="AY2" s="3"/>
+      <c r="AZ2" s="3"/>
+      <c r="BA2" s="3"/>
+      <c r="BB2" s="3"/>
+      <c r="BC2" s="3"/>
+      <c r="BD2" s="3"/>
+      <c r="BE2" s="3"/>
+      <c r="BF2" s="3"/>
+      <c r="BG2" s="3"/>
+      <c r="BH2" s="3"/>
+      <c r="BI2" s="3"/>
+      <c r="BJ2" s="3"/>
+      <c r="BK2" s="3"/>
+      <c r="BL2" s="3"/>
+      <c r="BM2" s="3"/>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="9"/>
-      <c r="AT3" s="9"/>
-      <c r="AU3" s="9"/>
-      <c r="AV3" s="9"/>
-      <c r="AW3" s="9"/>
-      <c r="AX3" s="9"/>
-      <c r="AY3" s="9"/>
-      <c r="AZ3" s="9"/>
-      <c r="BA3" s="9"/>
-      <c r="BB3" s="9"/>
-      <c r="BC3" s="9"/>
-      <c r="BD3" s="9"/>
-      <c r="BE3" s="9"/>
-      <c r="BF3" s="9"/>
-      <c r="BG3" s="9"/>
-      <c r="BH3" s="9"/>
-      <c r="BI3" s="9"/>
-      <c r="BJ3" s="9"/>
-      <c r="BK3" s="9"/>
-      <c r="BL3" s="9"/>
-      <c r="BM3" s="9"/>
+    <row r="3" spans="1:65">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3"/>
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="3"/>
+      <c r="BL3" s="3"/>
+      <c r="BM3" s="3"/>
     </row>
-    <row r="4" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="str">
+    <row r="4" customHeight="1" spans="1:12">
+      <c r="A4" s="4" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="12"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="18"/>
     </row>
-    <row r="5" spans="1:65" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="P5" s="16" t="s">
+    <row r="5" customHeight="1" spans="1:52">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="19"/>
+      <c r="P5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16" t="s">
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AO5" s="16" t="s">
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AO5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AP5" s="16"/>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="16" t="s">
+      <c r="AP5" s="17"/>
+      <c r="AQ5" s="17"/>
+      <c r="AR5" s="17"/>
+      <c r="AS5" s="17"/>
+      <c r="AT5" s="17"/>
+      <c r="AU5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="16"/>
-      <c r="AZ5" s="16"/>
+      <c r="AV5" s="17"/>
+      <c r="AW5" s="17"/>
+      <c r="AX5" s="17"/>
+      <c r="AY5" s="17"/>
+      <c r="AZ5" s="17"/>
     </row>
-    <row r="6" spans="1:65" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
+    <row r="6" ht="70.5" customHeight="1" spans="1:64">
+      <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="17"/>
-      <c r="M6" s="6" t="s">
+      <c r="L6" s="8"/>
+      <c r="M6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="P6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16" t="s">
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16" t="s">
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16" t="s">
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16" t="s">
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16" t="s">
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="16"/>
-      <c r="AJ6" s="16"/>
-      <c r="AK6" s="16" t="s">
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="16"/>
-      <c r="AM6" s="16"/>
-      <c r="AO6" s="16" t="s">
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AO6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="16"/>
-      <c r="AQ6" s="16"/>
-      <c r="AR6" s="16" t="s">
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
+      <c r="AR6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="16"/>
-      <c r="AT6" s="16"/>
-      <c r="AU6" s="16" t="s">
+      <c r="AS6" s="17"/>
+      <c r="AT6" s="17"/>
+      <c r="AU6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="16"/>
-      <c r="AX6" s="16" t="s">
+      <c r="AV6" s="17"/>
+      <c r="AW6" s="17"/>
+      <c r="AX6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AY6" s="16"/>
-      <c r="AZ6" s="16"/>
-      <c r="BA6" s="16" t="s">
+      <c r="AY6" s="17"/>
+      <c r="AZ6" s="17"/>
+      <c r="BA6" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="BB6" s="16"/>
-      <c r="BC6" s="16"/>
-      <c r="BD6" s="16" t="s">
+      <c r="BB6" s="17"/>
+      <c r="BC6" s="17"/>
+      <c r="BD6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="BE6" s="16"/>
-      <c r="BF6" s="16"/>
-      <c r="BG6" s="16" t="s">
+      <c r="BE6" s="17"/>
+      <c r="BF6" s="17"/>
+      <c r="BG6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="BH6" s="16"/>
-      <c r="BI6" s="16"/>
-      <c r="BJ6" s="16" t="s">
+      <c r="BH6" s="17"/>
+      <c r="BI6" s="17"/>
+      <c r="BJ6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="16"/>
-      <c r="BL6" s="16"/>
+      <c r="BK6" s="17"/>
+      <c r="BL6" s="17"/>
     </row>
-    <row r="7" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+    <row r="7" ht="30" customHeight="1" spans="1:64">
+      <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="20" t="str">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="str">
         <f>IF(_Area4_day_all!A2="","",_Area4_day_all!A2/10000)</f>
         <v/>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23" t="str">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="12" t="str">
         <f>IF(_Area4_day_all!B2="","",_Area4_day_all!B2/10000)</f>
         <v/>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23" t="str">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12" t="str">
         <f>IF(_Area4_day_all!J2="","",_Area4_day_all!J2/10000)</f>
         <v/>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="P7" t="s">
@@ -1402,31 +2002,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="8" ht="30" customHeight="1" spans="1:64">
+      <c r="A8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="23" t="str">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="12" t="str">
         <f>IF(_Area4_day_all!C2="","",_Area4_day_all!C2/10000)</f>
         <v/>
       </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23" t="str">
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="str">
         <f>IF(_Area4_day_all!D2="","",_Area4_day_all!D2/10000)</f>
         <v/>
       </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23" t="str">
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="str">
         <f>IF(_Area4_day_all!K2="","",_Area4_day_all!K2/10000)</f>
         <v/>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="7" t="s">
+      <c r="L8" s="12"/>
+      <c r="M8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="P8" t="str">
@@ -1622,341 +2222,339 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="9" ht="30" customHeight="1" spans="1:13">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="23" t="str">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="12" t="str">
         <f>IF(_Area4_day_all!E2="","",_Area4_day_all!E2/10000)</f>
         <v/>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23" t="str">
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="str">
         <f>IF(_Area4_day_all!F2="","",_Area4_day_all!F2/10000)</f>
         <v/>
       </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23" t="str">
+      <c r="J9" s="12"/>
+      <c r="K9" s="12" t="str">
         <f>IF(_Area4_day_all!L2="","",_Area4_day_all!L2/10000)</f>
         <v/>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="7"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="21"/>
     </row>
-    <row r="10" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="10" ht="30" customHeight="1" spans="1:13">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="23" t="str">
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="12" t="str">
         <f>IF(_Area3_day_all!A2="","",_Area3_day_all!A2/10000)</f>
         <v/>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23" t="str">
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="str">
         <f>IF(_Area3_day_all!B2="","",_Area3_day_all!B2/10000)</f>
         <v/>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23" t="str">
+      <c r="J10" s="12"/>
+      <c r="K10" s="12" t="str">
         <f>IF(_Area3_day_all!F2="","",_Area3_day_all!F2/10000)</f>
         <v/>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="7"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="21"/>
     </row>
-    <row r="11" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+    <row r="11" ht="30" customHeight="1" spans="1:13">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="23" t="str">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="12" t="str">
         <f>IFERROR(SUM(IF(_Area3_day_all!C2="","",_Area3_day_all!C2),IF(_Area4_day_all!G2="","",_Area4_day_all!G2))/10000,"")</f>
         <v/>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23" t="str">
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12" t="str">
         <f>IFERROR(SUM(IF(_Area3_day_all!D2="","",_Area3_day_all!D2),IF(_Area4_day_all!H2="","",_Area4_day_all!H2))/10000,"")</f>
         <v/>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23" t="str">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="str">
         <f>IFERROR(SUM(IF(_Area3_day_all!G2="","",_Area3_day_all!G2),IF(_Area4_day_all!M2="","",_Area4_day_all!M2))/10000,"")</f>
         <v/>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="7"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="21"/>
     </row>
-    <row r="12" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+    <row r="12" ht="30" customHeight="1" spans="1:13">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20" t="str">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9" t="str">
         <f>IFERROR(SUM(E7*3300+E8*17500+E9*6500)/E11,"")</f>
         <v/>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23" t="str">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="12" t="str">
         <f>IFERROR(E12/24/10000,"")</f>
         <v/>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="7"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="21"/>
     </row>
-    <row r="13" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+    <row r="13" ht="30" customHeight="1" spans="1:13">
+      <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="21"/>
     </row>
-    <row r="14" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17" t="s">
+    <row r="14" ht="30" customHeight="1" spans="1:13">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="21"/>
     </row>
-    <row r="15" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17" t="s">
+    <row r="15" ht="30" customHeight="1" spans="1:13">
+      <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="M15" s="21"/>
     </row>
-    <row r="16" spans="1:65" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+    <row r="16" ht="30" customHeight="1" spans="1:13">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="21"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+    <row r="17" ht="30" customHeight="1" spans="1:13">
+      <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="3" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="14">
         <f>SUM(V8:X8)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="14">
         <f>SUM(AU8:AW8)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="14">
         <f>SUM(Y8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="14">
         <f>SUM(AX8:AZ8)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="21"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17" t="s">
+    <row r="18" ht="30" customHeight="1" spans="1:13">
+      <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="3" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="14">
         <f>SUM(AB8:AD8)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="14">
         <f>SUM(BA8:BC8)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="14">
         <f>SUM(AE8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="14">
         <f>SUM(BD8:BF8)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="21"/>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+    <row r="19" ht="30" customHeight="1" spans="1:13">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="3" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="14">
         <f>SUM(P8:R8,AH8:AJ8)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="14">
         <f>SUM(AO8:AQ8,BG8:BI8)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="14">
         <f>SUM(S8:U8,AK8:AM8)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="23">
         <f>SUM(BJ8:BL8,AR8:AT8)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="21"/>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+    <row r="20" ht="30" customHeight="1" spans="1:13">
+      <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="7"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="21"/>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+    <row r="21" ht="30" customHeight="1" spans="1:4">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+    <row r="22" ht="30" customHeight="1" spans="1:4">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+    <row r="23" ht="30" customHeight="1" spans="1:4">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+    <row r="24" ht="30" customHeight="1" spans="1:4">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+    <row r="25" ht="30" customHeight="1" spans="1:4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+    <row r="26" ht="30" customHeight="1" spans="1:4">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="76">
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AA5"/>
     <mergeCell ref="AO5:AT5"/>
@@ -1973,6 +2571,11 @@
     <mergeCell ref="AE6:AG6"/>
     <mergeCell ref="AH6:AJ6"/>
     <mergeCell ref="AK6:AM6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AT6"/>
+    <mergeCell ref="AU6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
     <mergeCell ref="BD6:BF6"/>
     <mergeCell ref="BG6:BI6"/>
     <mergeCell ref="BJ6:BL6"/>
@@ -1980,11 +2583,6 @@
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AT6"/>
-    <mergeCell ref="AU6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="I8:J8"/>
@@ -2001,9 +2599,6 @@
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="K11:L11"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="E12:H12"/>
     <mergeCell ref="I12:J12"/>
@@ -2012,59 +2607,62 @@
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="K13:L13"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A1:BM3"/>
-    <mergeCell ref="A4:L5"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:J15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:L20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A1:BM3"/>
+    <mergeCell ref="A4:L5"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M7" r:id="rId1"/>
+    <hyperlink ref="M7" r:id="rId1" display="area-report-controller/AreaDayTagValues(黄色标记部分)"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="33.90625" customWidth="1"/>
-    <col min="3" max="4" width="36.08984375" customWidth="1"/>
-    <col min="6" max="6" width="33.90625" customWidth="1"/>
-    <col min="7" max="7" width="36.08984375" customWidth="1"/>
-    <col min="8" max="11" width="43.90625" customWidth="1"/>
-    <col min="12" max="14" width="42.7265625" customWidth="1"/>
-    <col min="16" max="18" width="43.90625" customWidth="1"/>
-    <col min="19" max="21" width="42.7265625" customWidth="1"/>
+    <col min="1" max="2" width="33.9083333333333" customWidth="1"/>
+    <col min="3" max="4" width="36.0916666666667" customWidth="1"/>
+    <col min="6" max="6" width="33.9083333333333" customWidth="1"/>
+    <col min="7" max="7" width="36.0916666666667" customWidth="1"/>
+    <col min="8" max="11" width="43.9083333333333" customWidth="1"/>
+    <col min="12" max="14" width="42.725" customWidth="1"/>
+    <col min="16" max="18" width="43.9083333333333" customWidth="1"/>
+    <col min="19" max="21" width="42.725" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2121,40 +2719,41 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AY1"/>
   <sheetViews>
     <sheetView topLeftCell="AU1" workbookViewId="0">
       <selection activeCell="AV8" sqref="AV8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="6" width="31.6328125" customWidth="1"/>
+    <col min="1" max="6" width="31.6333333333333" customWidth="1"/>
     <col min="7" max="8" width="35" customWidth="1"/>
-    <col min="10" max="12" width="31.6328125" customWidth="1"/>
+    <col min="10" max="12" width="31.6333333333333" customWidth="1"/>
     <col min="13" max="13" width="35" customWidth="1"/>
-    <col min="14" max="17" width="43.90625" customWidth="1"/>
-    <col min="18" max="20" width="42.7265625" customWidth="1"/>
-    <col min="21" max="23" width="43.90625" customWidth="1"/>
-    <col min="24" max="26" width="42.7265625" customWidth="1"/>
-    <col min="27" max="29" width="43.90625" customWidth="1"/>
-    <col min="30" max="32" width="42.7265625" customWidth="1"/>
-    <col min="34" max="36" width="43.90625" customWidth="1"/>
-    <col min="37" max="39" width="42.7265625" customWidth="1"/>
-    <col min="40" max="42" width="43.90625" customWidth="1"/>
-    <col min="43" max="45" width="42.7265625" customWidth="1"/>
-    <col min="46" max="48" width="43.90625" customWidth="1"/>
-    <col min="49" max="51" width="42.7265625" customWidth="1"/>
+    <col min="14" max="17" width="43.9083333333333" customWidth="1"/>
+    <col min="18" max="20" width="42.725" customWidth="1"/>
+    <col min="21" max="23" width="43.9083333333333" customWidth="1"/>
+    <col min="24" max="26" width="42.725" customWidth="1"/>
+    <col min="27" max="29" width="43.9083333333333" customWidth="1"/>
+    <col min="30" max="32" width="42.725" customWidth="1"/>
+    <col min="34" max="36" width="43.9083333333333" customWidth="1"/>
+    <col min="37" max="39" width="42.725" customWidth="1"/>
+    <col min="40" max="42" width="43.9083333333333" customWidth="1"/>
+    <col min="43" max="45" width="42.725" customWidth="1"/>
+    <col min="46" max="48" width="43.9083333333333" customWidth="1"/>
+    <col min="49" max="51" width="42.725" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2301,22 +2900,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
-    <sheet name="Area_all_main" sheetId="1" r:id="rId1"/>
+    <sheet name="Areaallmain" sheetId="1" r:id="rId1"/>
     <sheet name="_Area3_day_all" sheetId="2" r:id="rId2"/>
     <sheet name="_Area4_day_all" sheetId="3" r:id="rId3"/>
     <sheet name="_metadata" sheetId="4" r:id="rId4"/>
@@ -248,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -281,44 +281,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,23 +295,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -363,7 +312,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -371,23 +343,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,8 +402,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,13 +417,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +424,11 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -457,187 +457,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,16 +782,25 @@
       </diagonal>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -808,15 +817,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,16 +845,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -885,10 +885,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,136 +897,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1444,8 +1444,8 @@
   <sheetPr/>
   <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BN15" sqref="BN15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -248,9 +248,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -282,14 +282,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,9 +311,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,74 +396,19 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="12"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,31 +423,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -457,187 +457,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,26 +782,26 @@
       </diagonal>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,9 +823,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -844,189 +879,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1444,7 +1444,7 @@
   <sheetPr/>
   <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A22" sqref="A22:D22"/>
     </sheetView>
   </sheetViews>
@@ -2315,7 +2315,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
       <c r="I12" s="12" t="str">
-        <f>IFERROR(E12/24/10000,"")</f>
+        <f>IFERROR(E12/24,"")</f>
         <v/>
       </c>
       <c r="J12" s="12"/>

--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Areaallmain" sheetId="1" r:id="rId1"/>
-    <sheet name="_Area3_day_all" sheetId="2" r:id="rId2"/>
-    <sheet name="_Area4_day_all" sheetId="3" r:id="rId3"/>
-    <sheet name="_metadata" sheetId="4" r:id="rId4"/>
+    <sheet name="_Area3_day_all" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="_Area_month_all" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="_Area4_day_all" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -168,79 +169,79 @@
     <t>ES_L1R_Area4_BFG_Flow_1d_sum</t>
   </si>
   <si>
+    <t>ES_L1R_Area4_COG_Flow_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L1R_Area4_LDG_Flow_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L1R_Area4_MixGas_Flow_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_BFG_ACM1_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_BFG_ACM2_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_BFG_ACM3_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_BFG_ACM1_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_BFG_ACM2_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_BFG_ACM3_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_COG_ACM1_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_COG_ACM2_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_COG_ACM3_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_COG_ACM1_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_COG_ACM2_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_COG_ACM3_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_LDG_ACM1_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_LDG_ACM2_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_LDG_ACM3_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_LDG_ACM1_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_LDG_ACM2_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area4_LDG_ACM3_Stp_Times_1d_sum</t>
+  </si>
+  <si>
     <t>ES_L1R_Area4_BFG_Flow_1d_avg</t>
   </si>
   <si>
-    <t>ES_L1R_Area4_COG_Flow_1d_sum</t>
-  </si>
-  <si>
     <t>ES_L1R_Area4_COG_Flow_1d_avg</t>
   </si>
   <si>
-    <t>ES_L1R_Area4_LDG_Flow_1d_sum</t>
-  </si>
-  <si>
     <t>ES_L1R_Area4_LDG_Flow_1d_avg</t>
   </si>
   <si>
-    <t>ES_L1R_Area4_MixGas_Flow_1d_sum</t>
-  </si>
-  <si>
     <t>ES_L1R_Area4_MixGas_Flow_1d_avg</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_BFG_ACM1_Strt_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_BFG_ACM2_Strt_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_BFG_ACM3_Strt_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_BFG_ACM1_Stp_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_BFG_ACM2_Stp_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_BFG_ACM3_Stp_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_COG_ACM1_Strt_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_COG_ACM2_Strt_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_COG_ACM3_Strt_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_COG_ACM1_Stp_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_COG_ACM2_Stp_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_COG_ACM3_Stp_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_LDG_ACM1_Strt_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_LDG_ACM2_Strt_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_LDG_ACM3_Strt_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_LDG_ACM1_Stp_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_LDG_ACM2_Stp_Times_1d_sum</t>
-  </si>
-  <si>
-    <t>ES_L2C_Area4_LDG_ACM3_Stp_Times_1d_sum</t>
   </si>
 </sst>
 </file>
@@ -249,11 +250,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +263,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -282,7 +291,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,14 +299,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +336,42 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,23 +409,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,42 +438,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -457,187 +466,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,16 +791,16 @@
       </diagonal>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -821,6 +830,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -828,39 +852,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,16 +870,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,200 +906,203 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1444,417 +1456,419 @@
   <sheetPr/>
   <dimension ref="A1:BM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BS9" sqref="BS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="7" max="7" width="12.725" customWidth="1"/>
     <col min="8" max="8" width="12.2666666666667" customWidth="1"/>
+    <col min="10" max="10" width="11.9083333333333" customWidth="1"/>
     <col min="11" max="11" width="12.725" customWidth="1"/>
     <col min="13" max="13" width="78.725" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="38.6333333333333" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="26.2666666666667" hidden="1" customWidth="1"/>
-    <col min="16" max="64" width="9" hidden="1" customWidth="1"/>
+    <col min="16" max="66" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
     </row>
     <row r="2" spans="1:65">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3"/>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
     </row>
     <row r="3" spans="1:65">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:12">
-      <c r="A4" s="4" t="str">
+      <c r="A4" s="7" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="18"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" customHeight="1" spans="1:52">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="19"/>
-      <c r="P5" s="17" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="22"/>
+      <c r="P5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17" t="s">
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AO5" s="17" t="s">
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AO5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
-      <c r="AT5" s="17"/>
-      <c r="AU5" s="17" t="s">
+      <c r="AP5" s="20"/>
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20"/>
+      <c r="AS5" s="20"/>
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="17"/>
-      <c r="AW5" s="17"/>
-      <c r="AX5" s="17"/>
-      <c r="AY5" s="17"/>
-      <c r="AZ5" s="17"/>
+      <c r="AV5" s="20"/>
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20"/>
+      <c r="AY5" s="20"/>
+      <c r="AZ5" s="20"/>
     </row>
     <row r="6" ht="70.5" customHeight="1" spans="1:64">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8" t="s">
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="20" t="s">
+      <c r="L6" s="11"/>
+      <c r="M6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="17" t="s">
+      <c r="P6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17" t="s">
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17" t="s">
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17" t="s">
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17" t="s">
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17" t="s">
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
-      <c r="AK6" s="17" t="s">
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="17"/>
-      <c r="AM6" s="17"/>
-      <c r="AO6" s="17" t="s">
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AO6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="17"/>
-      <c r="AQ6" s="17"/>
-      <c r="AR6" s="17" t="s">
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="17"/>
-      <c r="AT6" s="17"/>
-      <c r="AU6" s="17" t="s">
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AV6" s="17"/>
-      <c r="AW6" s="17"/>
-      <c r="AX6" s="17" t="s">
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AY6" s="17"/>
-      <c r="AZ6" s="17"/>
-      <c r="BA6" s="17" t="s">
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="BB6" s="17"/>
-      <c r="BC6" s="17"/>
-      <c r="BD6" s="17" t="s">
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="BE6" s="17"/>
-      <c r="BF6" s="17"/>
-      <c r="BG6" s="17" t="s">
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="BH6" s="17"/>
-      <c r="BI6" s="17"/>
-      <c r="BJ6" s="17" t="s">
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="17"/>
-      <c r="BL6" s="17"/>
+      <c r="BK6" s="20"/>
+      <c r="BL6" s="20"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:64">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9" t="str">
-        <f>IF(_Area4_day_all!A2="","",_Area4_day_all!A2/10000)</f>
-        <v/>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12" t="str">
-        <f>IF(_Area4_day_all!B2="","",_Area4_day_all!B2/10000)</f>
-        <v/>
-      </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12" t="str">
-        <f>IF(_Area4_day_all!J2="","",_Area4_day_all!J2/10000)</f>
-        <v/>
-      </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="15" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12" t="str">
+        <f>IF(_Area4_day_all!A2="","",_Area4_day_all!A2/3600/10000)</f>
+        <v/>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="str">
+        <f>IF(E7="","",E7/24)</f>
+        <v/>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15" t="str">
+        <f>IF(_Area_month_all!A2="","",_Area_month_all!A2/3600/10000)</f>
+        <v/>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="P7" t="s">
@@ -2003,30 +2017,30 @@
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:64">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="12" t="str">
-        <f>IF(_Area4_day_all!C2="","",_Area4_day_all!C2/10000)</f>
-        <v/>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12" t="str">
-        <f>IF(_Area4_day_all!D2="","",_Area4_day_all!D2/10000)</f>
-        <v/>
-      </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="str">
-        <f>IF(_Area4_day_all!K2="","",_Area4_day_all!K2/10000)</f>
-        <v/>
-      </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="21" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="15" t="str">
+        <f>IF(_Area4_day_all!C2="","",_Area4_day_all!C2/3600/10000)</f>
+        <v/>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15" t="str">
+        <f>IF(E8="","",E8/24)</f>
+        <v/>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15" t="str">
+        <f>IF(_Area_month_all!B2="","",_Area_month_all!B2/3600/10000)</f>
+        <v/>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="P8" t="str">
@@ -2126,435 +2140,434 @@
         <v/>
       </c>
       <c r="AO8" t="str">
-        <f>IF(_Area3_day_all!P2="","",_Area3_day_all!P2)</f>
+        <f>IF(_Area_month_all!Y2="","",_Area_month_all!Y2)</f>
         <v/>
       </c>
       <c r="AP8" t="str">
-        <f>IF(_Area3_day_all!Q2="","",_Area3_day_all!Q2)</f>
+        <f>IF(_Area_month_all!Z2="","",_Area_month_all!Z2)</f>
         <v/>
       </c>
       <c r="AQ8" t="str">
-        <f>IF(_Area3_day_all!R2="","",_Area3_day_all!R2)</f>
+        <f>IF(_Area_month_all!AA2="","",_Area_month_all!AA2)</f>
         <v/>
       </c>
       <c r="AR8" t="str">
-        <f>IF(_Area3_day_all!S2="","",_Area3_day_all!S2)</f>
+        <f>IF(_Area_month_all!AB2="","",_Area_month_all!AB2)</f>
         <v/>
       </c>
       <c r="AS8" t="str">
-        <f>IF(_Area3_day_all!T2="","",_Area3_day_all!T2)</f>
+        <f>IF(_Area_month_all!AC2="","",_Area_month_all!AC2)</f>
         <v/>
       </c>
       <c r="AT8" t="str">
-        <f>IF(_Area3_day_all!U2="","",_Area3_day_all!U2)</f>
+        <f>IF(_Area_month_all!AD2="","",_Area_month_all!AD2)</f>
         <v/>
       </c>
       <c r="AU8" t="str">
-        <f>IF(_Area4_day_all!AH2="","",_Area4_day_all!AH2)</f>
+        <f>IF(_Area_month_all!G2="","",_Area_month_all!G2)</f>
         <v/>
       </c>
       <c r="AV8" t="str">
-        <f>IF(_Area4_day_all!AI2="","",_Area4_day_all!AI2)</f>
+        <f>IF(_Area_month_all!H2="","",_Area_month_all!H2)</f>
         <v/>
       </c>
       <c r="AW8" t="str">
-        <f>IF(_Area4_day_all!AJ2="","",_Area4_day_all!AJ2)</f>
+        <f>IF(_Area_month_all!I2="","",_Area_month_all!I2)</f>
         <v/>
       </c>
       <c r="AX8" t="str">
-        <f>IF(_Area4_day_all!AK2="","",_Area4_day_all!AK2)</f>
+        <f>IF(_Area_month_all!J2="","",_Area_month_all!J2)</f>
         <v/>
       </c>
       <c r="AY8" t="str">
-        <f>IF(_Area4_day_all!AL2="","",_Area4_day_all!AL2)</f>
+        <f>IF(_Area_month_all!K2="","",_Area_month_all!K2)</f>
         <v/>
       </c>
       <c r="AZ8" t="str">
-        <f>IF(_Area4_day_all!AM2="","",_Area4_day_all!AM2)</f>
+        <f>IF(_Area_month_all!L2="","",_Area_month_all!L2)</f>
         <v/>
       </c>
       <c r="BA8" t="str">
-        <f>IF(_Area4_day_all!AN2="","",_Area4_day_all!AN2)</f>
+        <f>IF(_Area_month_all!M2="","",_Area_month_all!M2)</f>
         <v/>
       </c>
       <c r="BB8" t="str">
-        <f>IF(_Area4_day_all!AO2="","",_Area4_day_all!AO2)</f>
+        <f>IF(_Area_month_all!N2="","",_Area_month_all!N2)</f>
         <v/>
       </c>
       <c r="BC8" t="str">
-        <f>IF(_Area4_day_all!AP2="","",_Area4_day_all!AP2)</f>
+        <f>IF(_Area_month_all!O2="","",_Area_month_all!O2)</f>
         <v/>
       </c>
       <c r="BD8" t="str">
-        <f>IF(_Area4_day_all!AQ2="","",_Area4_day_all!AQ2)</f>
+        <f>IF(_Area_month_all!P2="","",_Area_month_all!P2)</f>
         <v/>
       </c>
       <c r="BE8" t="str">
-        <f>IF(_Area4_day_all!AR2="","",_Area4_day_all!AR2)</f>
+        <f>IF(_Area_month_all!Q2="","",_Area_month_all!Q2)</f>
         <v/>
       </c>
       <c r="BF8" t="str">
-        <f>IF(_Area4_day_all!AS2="","",_Area4_day_all!AS2)</f>
+        <f>IF(_Area_month_all!R2="","",_Area_month_all!R2)</f>
         <v/>
       </c>
       <c r="BG8" t="str">
-        <f>IF(_Area4_day_all!AT2="","",_Area4_day_all!AT2)</f>
+        <f>IF(_Area_month_all!S2="","",_Area_month_all!S2)</f>
         <v/>
       </c>
       <c r="BH8" t="str">
-        <f>IF(_Area4_day_all!AU2="","",_Area4_day_all!AU2)</f>
+        <f>IF(_Area_month_all!T2="","",_Area_month_all!T2)</f>
         <v/>
       </c>
       <c r="BI8" t="str">
-        <f>IF(_Area4_day_all!AV2="","",_Area4_day_all!AV2)</f>
+        <f>IF(_Area_month_all!U2="","",_Area_month_all!U2)</f>
         <v/>
       </c>
       <c r="BJ8" t="str">
-        <f>IF(_Area4_day_all!AW2="","",_Area4_day_all!AW2)</f>
+        <f>IF(_Area_month_all!V2="","",_Area_month_all!V2)</f>
         <v/>
       </c>
       <c r="BK8" t="str">
-        <f>IF(_Area4_day_all!AX2="","",_Area4_day_all!AX2)</f>
+        <f>IF(_Area_month_all!W2="","",_Area_month_all!W2)</f>
         <v/>
       </c>
       <c r="BL8" t="str">
-        <f>IF(_Area4_day_all!AY2="","",_Area4_day_all!AY2)</f>
+        <f>IF(_Area_month_all!X2="","",_Area_month_all!X2)</f>
         <v/>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:13">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="12" t="str">
-        <f>IF(_Area4_day_all!E2="","",_Area4_day_all!E2/10000)</f>
-        <v/>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="str">
-        <f>IF(_Area4_day_all!F2="","",_Area4_day_all!F2/10000)</f>
-        <v/>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12" t="str">
-        <f>IF(_Area4_day_all!L2="","",_Area4_day_all!L2/10000)</f>
-        <v/>
-      </c>
-      <c r="L9" s="12"/>
-      <c r="M9" s="21"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="15" t="str">
+        <f>IF(_Area4_day_all!E2="","",_Area4_day_all!E2/3600/10000)</f>
+        <v/>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15" t="str">
+        <f>IF(E9="","",E9/24)</f>
+        <v/>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15" t="str">
+        <f>IF(_Area_month_all!C2="","",_Area_month_all!C2/3600/10000)</f>
+        <v/>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:13">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="12" t="str">
-        <f>IF(_Area3_day_all!A2="","",_Area3_day_all!A2/10000)</f>
-        <v/>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12" t="str">
-        <f>IF(_Area3_day_all!B2="","",_Area3_day_all!B2/10000)</f>
-        <v/>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12" t="str">
-        <f>IF(_Area3_day_all!F2="","",_Area3_day_all!F2/10000)</f>
-        <v/>
-      </c>
-      <c r="L10" s="12"/>
-      <c r="M10" s="21"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="15" t="str">
+        <f>IF(_Area3_day_all!A2="","",_Area3_day_all!A2/3600/10000)</f>
+        <v/>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15" t="str">
+        <f>IF(E10="","",E10/24)</f>
+        <v/>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15" t="str">
+        <f>IF(_Area_month_all!E2="","",_Area_month_all!E2/3600/10000)</f>
+        <v/>
+      </c>
+      <c r="L10" s="15"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:13">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="12" t="str">
-        <f>IFERROR(SUM(IF(_Area3_day_all!C2="","",_Area3_day_all!C2),IF(_Area4_day_all!G2="","",_Area4_day_all!G2))/10000,"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12" t="str">
-        <f>IFERROR(SUM(IF(_Area3_day_all!D2="","",_Area3_day_all!D2),IF(_Area4_day_all!H2="","",_Area4_day_all!H2))/10000,"")</f>
-        <v/>
-      </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12" t="str">
-        <f>IFERROR(SUM(IF(_Area3_day_all!G2="","",_Area3_day_all!G2),IF(_Area4_day_all!M2="","",_Area4_day_all!M2))/10000,"")</f>
-        <v/>
-      </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="21"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="15">
+        <f>SUM(E7:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15">
+        <f>IF(E11="","",E11/24)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15">
+        <f>SUM(K7:L9)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9" t="str">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12" t="str">
         <f>IFERROR(SUM(E7*3300+E8*17500+E9*6500)/E11,"")</f>
         <v/>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="str">
-        <f>IFERROR(E12/24,"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="21"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="21"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="21"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:13">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="M15" s="21"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:13">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="21"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:13">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="13" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="17">
         <f>SUM(V8:X8)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="17">
         <f>SUM(AU8:AW8)</f>
         <v>0</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="17">
         <f>SUM(Y8:AA8)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="17">
         <f>SUM(AX8:AZ8)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="21"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:13">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="13" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="17">
         <f>SUM(AB8:AD8)</f>
         <v>0</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="17">
         <f>SUM(BA8:BC8)</f>
         <v>0</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="17">
         <f>SUM(AE8:AG8)</f>
         <v>0</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="17">
         <f>SUM(BD8:BF8)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="21"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:13">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="13" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="17">
         <f>SUM(P8:R8,AH8:AJ8)</f>
         <v>0</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="17">
         <f>SUM(AO8:AQ8,BG8:BI8)</f>
         <v>0</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I19" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="17">
         <f>SUM(S8:U8,AK8:AM8)</f>
         <v>0</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="26">
         <f>SUM(BJ8:BL8,AR8:AT8)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="21"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:13">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="21"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:4">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:4">
-      <c r="A22" s="17"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:4">
-      <c r="A23" s="17"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="76">
+  <mergeCells count="77">
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AA5"/>
     <mergeCell ref="AO5:AT5"/>
@@ -2614,6 +2627,7 @@
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="E15:H15"/>
     <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="I16:J16"/>
@@ -2646,8 +2660,8 @@
   <sheetPr/>
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2663,7 +2677,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2675,7 +2689,7 @@
       <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2699,24 +2713,12 @@
       <c r="N1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2727,10 +2729,133 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:AD1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="3" width="30.8166666666667" customWidth="1"/>
+    <col min="4" max="4" width="34.0916666666667" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="35.1833333333333" customWidth="1"/>
+    <col min="7" max="9" width="42.725" customWidth="1"/>
+    <col min="10" max="12" width="41.6333333333333" customWidth="1"/>
+    <col min="13" max="15" width="42.725" customWidth="1"/>
+    <col min="16" max="18" width="41.6333333333333" customWidth="1"/>
+    <col min="19" max="21" width="42.725" customWidth="1"/>
+    <col min="22" max="24" width="41.6333333333333" customWidth="1"/>
+    <col min="25" max="27" width="42.725" customWidth="1"/>
+    <col min="28" max="30" width="41.6333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AV8" sqref="AV8"/>
+    <sheetView topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2758,145 +2883,145 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="AH1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2905,7 +3030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>

--- a/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
+++ b/excel/finished/能介/煤气柜作业区混合煤气情况表.xlsx
@@ -8,17 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Areaallmain" sheetId="1" r:id="rId1"/>
-    <sheet name="_Area3_day_all" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="_Area_month_all" sheetId="5" state="hidden" r:id="rId3"/>
-    <sheet name="_Area4_day_all" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="_Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="_Area3_day_all" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="_Area_month_all" sheetId="5" r:id="rId4"/>
+    <sheet name="_Area4_day_all" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="_metadata" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="150">
   <si>
     <t>煤气柜作业区混合煤气情况表</t>
   </si>
@@ -47,7 +48,7 @@
     <t>月度累计</t>
   </si>
   <si>
-    <t xml:space="preserve">接口说明：http://10.66.3.220:8080/swagger-ui.html#/ 
+    <t xml:space="preserve">接口说明：http://10.11.11.33:8080/swagger-ui.html#/ 
 传入参数：该表的所有接口需要传入tag名、日期即可（如2018/9/12）"
 </t>
   </si>
@@ -103,18 +104,6 @@
     <t>平均热值（KJ/m3)</t>
   </si>
   <si>
-    <t>转炉煤气回收炉数（炉）</t>
-  </si>
-  <si>
-    <t>转炉煤气拒收炉数（炉）</t>
-  </si>
-  <si>
-    <t>转炉煤气拒送炉数</t>
-  </si>
-  <si>
-    <t>转炉煤气吨钢回收量（m3/t）</t>
-  </si>
-  <si>
     <t>高炉风机开停次数（次/天）</t>
   </si>
   <si>
@@ -133,7 +122,103 @@
     <t>转炉风机开停次数（次/天）</t>
   </si>
   <si>
-    <t>开停机情况及拒收原因：无</t>
+    <t>10万柜1号油泵站1号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>10万柜1号油泵站2号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>10万柜2号油泵站1号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>10万柜2号油泵站2号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>10万柜3号油泵站1号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>10万柜3号油泵站2号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>10万柜4号油泵站1号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>10万柜4号油泵站2号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>7万柜1号油泵站1号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>7万柜1号油泵站2号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>7万柜2号油泵站1号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>7万柜2号油泵站2号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>7万柜3号油泵站1号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>7万柜3号油泵站2号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>7万柜4号油泵站1号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>7万柜4号油泵站2号油泵开停机次数（次/天）</t>
+  </si>
+  <si>
+    <t>10万柜1号油泵站1号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>累计/日：</t>
+  </si>
+  <si>
+    <t>10万柜1号油泵站2号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>10万柜2号油泵站1号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>10万柜2号油泵站2号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>10万柜3号油泵站1号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>10万柜3号油泵站2号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>10万柜4号油泵站1号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>10万柜4号油泵站2号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>7万柜1号油泵站1号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>7万柜1号油泵站2号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>7万柜2号油泵站1号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>7万柜2号油泵站2号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>7万柜3号油泵站1号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>7万柜3号油泵站2号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>7万柜4号油泵站1号油泵运行时间（h）</t>
+  </si>
+  <si>
+    <t>7万柜4号油泵站2号油泵运行时间（h）</t>
   </si>
   <si>
     <t>ES_L1R_Area3_LD2BF_Flow_1d_sum</t>
@@ -164,6 +249,150 @@
   </si>
   <si>
     <t>ES_L2C_Area3_LDG_ACM3_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump11_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump12_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump21_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump22_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump31_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump32_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump41_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump42_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump11_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump12_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump21_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump22_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump31_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump32_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump41_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump42_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump11_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump12_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump21_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump22_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump31_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump32_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump41_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump42_Strt_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump11_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump12_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump21_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump22_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump31_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump32_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump41_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump42_Stp_Times_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump11_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump12_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump21_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump22_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump31_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump32_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump41_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_BFGOilPump42_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump11_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump12_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump21_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump22_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump31_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump32_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump41_Run_1d_sum</t>
+  </si>
+  <si>
+    <t>ES_L2C_Area3_COGOilPump42_Run_1d_sum</t>
   </si>
   <si>
     <t>ES_L1R_Area4_BFG_Flow_1d_sum</t>
@@ -248,13 +477,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,7 +493,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -283,30 +513,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,75 +544,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,10 +572,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -436,6 +601,64 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -466,7 +689,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,49 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,121 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -657,6 +880,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -703,21 +965,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -746,31 +993,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="1">
@@ -792,30 +1015,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -830,27 +1029,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -873,9 +1055,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,16 +1087,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,16 +1129,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -927,182 +1150,199 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1454,15 +1694,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BM26"/>
+  <dimension ref="A1:BM47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BS9" sqref="BS9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="BR41" sqref="BR41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="7" max="7" width="12.725" customWidth="1"/>
     <col min="8" max="8" width="12.2666666666667" customWidth="1"/>
     <col min="10" max="10" width="11.9083333333333" customWidth="1"/>
@@ -1470,405 +1710,406 @@
     <col min="13" max="13" width="78.725" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="38.6333333333333" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="26.2666666666667" hidden="1" customWidth="1"/>
-    <col min="16" max="66" width="9" hidden="1" customWidth="1"/>
+    <col min="16" max="64" width="9" hidden="1" customWidth="1"/>
+    <col min="65" max="66" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AC1" s="12"/>
+      <c r="AD1" s="12"/>
+      <c r="AE1" s="12"/>
+      <c r="AF1" s="12"/>
+      <c r="AG1" s="12"/>
+      <c r="AH1" s="12"/>
+      <c r="AI1" s="12"/>
+      <c r="AJ1" s="12"/>
+      <c r="AK1" s="12"/>
+      <c r="AL1" s="12"/>
+      <c r="AM1" s="12"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
+      <c r="BD1" s="12"/>
+      <c r="BE1" s="12"/>
+      <c r="BF1" s="12"/>
+      <c r="BG1" s="12"/>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="12"/>
+      <c r="BJ1" s="12"/>
+      <c r="BK1" s="12"/>
+      <c r="BL1" s="12"/>
+      <c r="BM1" s="12"/>
     </row>
     <row r="2" spans="1:65">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12"/>
+      <c r="AV2" s="12"/>
+      <c r="AW2" s="12"/>
+      <c r="AX2" s="12"/>
+      <c r="AY2" s="12"/>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12"/>
+      <c r="BB2" s="12"/>
+      <c r="BC2" s="12"/>
+      <c r="BD2" s="12"/>
+      <c r="BE2" s="12"/>
+      <c r="BF2" s="12"/>
+      <c r="BG2" s="12"/>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12"/>
+      <c r="BJ2" s="12"/>
+      <c r="BK2" s="12"/>
+      <c r="BL2" s="12"/>
+      <c r="BM2" s="12"/>
     </row>
     <row r="3" spans="1:65">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:12">
-      <c r="A4" s="7" t="str">
+      <c r="A4" s="13" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="21"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="25"/>
     </row>
     <row r="5" customHeight="1" spans="1:52">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="22"/>
-      <c r="P5" s="20" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="26"/>
+      <c r="P5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20" t="s">
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AO5" s="20" t="s">
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AO5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AP5" s="20"/>
-      <c r="AQ5" s="20"/>
-      <c r="AR5" s="20"/>
-      <c r="AS5" s="20"/>
-      <c r="AT5" s="20"/>
-      <c r="AU5" s="20" t="s">
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="20"/>
-      <c r="AW5" s="20"/>
-      <c r="AX5" s="20"/>
-      <c r="AY5" s="20"/>
-      <c r="AZ5" s="20"/>
+      <c r="AV5" s="27"/>
+      <c r="AW5" s="27"/>
+      <c r="AX5" s="27"/>
+      <c r="AY5" s="27"/>
+      <c r="AZ5" s="27"/>
     </row>
     <row r="6" ht="70.5" customHeight="1" spans="1:64">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="17"/>
+      <c r="K6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="23" t="s">
+      <c r="L6" s="17"/>
+      <c r="M6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20" t="s">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20" t="s">
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20" t="s">
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20" t="s">
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20" t="s">
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20" t="s">
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="20" t="s">
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AL6" s="20"/>
-      <c r="AM6" s="20"/>
-      <c r="AO6" s="20" t="s">
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AO6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="20"/>
-      <c r="AR6" s="20" t="s">
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AS6" s="20"/>
-      <c r="AT6" s="20"/>
-      <c r="AU6" s="20" t="s">
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AV6" s="20"/>
-      <c r="AW6" s="20"/>
-      <c r="AX6" s="20" t="s">
+      <c r="AV6" s="27"/>
+      <c r="AW6" s="27"/>
+      <c r="AX6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AY6" s="20"/>
-      <c r="AZ6" s="20"/>
-      <c r="BA6" s="20" t="s">
+      <c r="AY6" s="27"/>
+      <c r="AZ6" s="27"/>
+      <c r="BA6" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="BB6" s="20"/>
-      <c r="BC6" s="20"/>
-      <c r="BD6" s="20" t="s">
+      <c r="BB6" s="27"/>
+      <c r="BC6" s="27"/>
+      <c r="BD6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="BE6" s="20"/>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="20" t="s">
+      <c r="BE6" s="27"/>
+      <c r="BF6" s="27"/>
+      <c r="BG6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="BH6" s="20"/>
-      <c r="BI6" s="20"/>
-      <c r="BJ6" s="20" t="s">
+      <c r="BH6" s="27"/>
+      <c r="BI6" s="27"/>
+      <c r="BJ6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="BK6" s="20"/>
-      <c r="BL6" s="20"/>
+      <c r="BK6" s="27"/>
+      <c r="BL6" s="27"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:64">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12" t="str">
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18" t="str">
         <f>IF(_Area4_day_all!A2="","",_Area4_day_all!A2/3600/10000)</f>
         <v/>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15" t="str">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21" t="str">
         <f>IF(E7="","",E7/24)</f>
         <v/>
       </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15" t="str">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21" t="str">
         <f>IF(_Area_month_all!A2="","",_Area_month_all!A2/3600/10000)</f>
         <v/>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="18" t="s">
+      <c r="L7" s="21"/>
+      <c r="M7" s="29" t="s">
         <v>17</v>
       </c>
       <c r="P7" t="s">
@@ -2017,30 +2258,30 @@
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:64">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="15" t="str">
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="21" t="str">
         <f>IF(_Area4_day_all!C2="","",_Area4_day_all!C2/3600/10000)</f>
         <v/>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="str">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21" t="str">
         <f>IF(E8="","",E8/24)</f>
         <v/>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15" t="str">
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="str">
         <f>IF(_Area_month_all!B2="","",_Area_month_all!B2/3600/10000)</f>
         <v/>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="24" t="s">
+      <c r="L8" s="21"/>
+      <c r="M8" s="30" t="s">
         <v>22</v>
       </c>
       <c r="P8" t="str">
@@ -2237,337 +2478,1384 @@
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:13">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="15" t="str">
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="21" t="str">
         <f>IF(_Area4_day_all!E2="","",_Area4_day_all!E2/3600/10000)</f>
         <v/>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="str">
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21" t="str">
         <f>IF(E9="","",E9/24)</f>
         <v/>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15" t="str">
+      <c r="J9" s="21"/>
+      <c r="K9" s="21" t="str">
         <f>IF(_Area_month_all!C2="","",_Area_month_all!C2/3600/10000)</f>
         <v/>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="30"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:13">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="15" t="str">
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="21" t="str">
         <f>IF(_Area3_day_all!A2="","",_Area3_day_all!A2/3600/10000)</f>
         <v/>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15" t="str">
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21" t="str">
         <f>IF(E10="","",E10/24)</f>
         <v/>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15" t="str">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21" t="str">
         <f>IF(_Area_month_all!E2="","",_Area_month_all!E2/3600/10000)</f>
         <v/>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="30"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:13">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="15">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="21">
         <f>SUM(E7:H9)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15">
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21">
         <f>IF(E11="","",E11/24)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15">
+      <c r="J11" s="21"/>
+      <c r="K11" s="21">
         <f>SUM(K7:L9)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="30"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:13">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12" t="str">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18" t="str">
         <f>IFERROR(SUM(E7*3300+E8*17500+E9*6500)/E11,"")</f>
         <v/>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="24"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="30"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:13">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="24"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8">
+        <f>SUM(V8:X8)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="8">
+        <f>SUM(AU8:AW8)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="8">
+        <f>SUM(Y8:AA8)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L13" s="8">
+        <f>SUM(AX8:AZ8)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="30"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="24"/>
+      <c r="F14" s="8">
+        <f>SUM(AB8:AD8)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(BA8:BC8)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" s="8">
+        <f>SUM(AE8:AG8)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="8">
+        <f>SUM(BD8:BF8)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="30"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:13">
-      <c r="A15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="24"/>
+      <c r="A15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="8">
+        <f>SUM(P8:R8,AH8:AJ8)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="8">
+        <f>SUM(AO8:AQ8,BG8:BI8)</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="8">
+        <f>SUM(S8:U8,AK8:AM8)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15" s="9">
+        <f>SUM(BJ8:BL8,AR8:AT8)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="30"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:13">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8">
+        <f>IF(_Sheet1!A1="",_Sheet1!$E$1,_Sheet1!A1)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="8">
+        <f>IF(_Sheet1!B1="",_Sheet1!$E$1,_Sheet1!B1)</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="24"/>
+      <c r="J16" s="8">
+        <f>IF(_Sheet1!C1="",_Sheet1!$E$1,_Sheet1!C1)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="8">
+        <f>IF(_Sheet1!D1="",_Sheet1!$E$1,_Sheet1!D1)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="30"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:13">
-      <c r="A17" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="17">
-        <f>SUM(V8:X8)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="17">
-        <f>SUM(AU8:AW8)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="17">
-        <f>SUM(Y8:AA8)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="17">
-        <f>SUM(AX8:AZ8)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="24"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="8">
+        <f>IF(_Sheet1!A2="",_Sheet1!$E$1,_Sheet1!A2)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="8">
+        <f>IF(_Sheet1!B2="",_Sheet1!$E$1,_Sheet1!B2)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="8">
+        <f>IF(_Area3_day_all!X2="",0,_Area3_day_all!X2)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="8">
+        <f>IF(_Sheet1!D2="",_Sheet1!$E$1,_Sheet1!D2)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="30"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:13">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="17">
-        <f>SUM(AB8:AD8)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" s="17">
-        <f>SUM(BA8:BC8)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="17">
-        <f>SUM(AE8:AG8)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="17">
-        <f>SUM(BD8:BF8)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="24"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8">
+        <f>IF(_Sheet1!A3="",_Sheet1!$E$1,_Sheet1!A3)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="8">
+        <f>IF(_Sheet1!B3="",_Sheet1!$E$1,_Sheet1!B3)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="8">
+        <f>IF(_Area3_day_all!Y2="",0,_Area3_day_all!Y2)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="9">
+        <f>IF(_Sheet1!D3="",_Sheet1!$E$1,_Sheet1!D3)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="30"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:13">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="17">
-        <f>SUM(P8:R8,AH8:AJ8)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="17">
-        <f>SUM(AO8:AQ8,BG8:BI8)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="J19" s="17">
-        <f>SUM(S8:U8,AK8:AM8)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="26">
-        <f>SUM(BJ8:BL8,AR8:AT8)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="24"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8">
+        <f>IF(_Sheet1!A4="",_Sheet1!$E$1,_Sheet1!A4)</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="8">
+        <f>IF(_Sheet1!B4="",_Sheet1!$E$1,_Sheet1!B4)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="8">
+        <f>IF(_Area3_day_all!Z2="",0,_Area3_day_all!Z2)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="8">
+        <f>IF(_Sheet1!D4="",_Sheet1!$E$1,_Sheet1!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="30"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:13">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" ht="30" customHeight="1" spans="1:4">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" ht="30" customHeight="1" spans="1:4">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" ht="30" customHeight="1" spans="1:4">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" ht="30" customHeight="1" spans="1:4">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" ht="30" customHeight="1" spans="1:4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" ht="30" customHeight="1" spans="1:4">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="8">
+        <f>IF(_Sheet1!A5="",_Sheet1!$E$1,_Sheet1!A5)</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="8">
+        <f>IF(_Sheet1!B5="",_Sheet1!$E$1,_Sheet1!B5)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="8">
+        <f>IF(_Area3_day_all!AA2="",0,_Area3_day_all!AA2)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="8">
+        <f>IF(_Sheet1!D5="",_Sheet1!$E$1,_Sheet1!D5)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" ht="30" customHeight="1" spans="1:13">
+      <c r="A21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="8">
+        <f>IF(_Sheet1!A6="",_Sheet1!$E$1,_Sheet1!A6)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="8">
+        <f>IF(_Sheet1!B6="",_Sheet1!$E$1,_Sheet1!B6)</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="8">
+        <f>IF(_Area3_day_all!AB2="",0,_Area3_day_all!AB2)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L21" s="9">
+        <f>IF(_Sheet1!D6="",_Sheet1!$E$1,_Sheet1!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" ht="30" customHeight="1" spans="1:13">
+      <c r="A22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="8">
+        <f>IF(_Sheet1!A7="",_Sheet1!$E$1,_Sheet1!A7)</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="8">
+        <f>IF(_Sheet1!B7="",_Sheet1!$E$1,_Sheet1!B7)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" s="8">
+        <f>IF(_Area3_day_all!AC2="",0,_Area3_day_all!AC2)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L22" s="8">
+        <f>IF(_Sheet1!D7="",_Sheet1!$E$1,_Sheet1!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="30"/>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:13">
+      <c r="A23" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="8">
+        <f>IF(_Sheet1!A8="",_Sheet1!$E$1,_Sheet1!A8)</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="8">
+        <f>IF(_Sheet1!B8="",_Sheet1!$E$1,_Sheet1!B8)</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="8">
+        <f>IF(_Area3_day_all!AD2="",0,_Area3_day_all!AD2)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="9">
+        <f>IF(_Sheet1!D8="",_Sheet1!$E$1,_Sheet1!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="30"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="1:13">
+      <c r="A24" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8">
+        <f>IF(_Sheet1!A9="",_Sheet1!$E$1,_Sheet1!A9)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="8">
+        <f>IF(_Sheet1!B9="",_Sheet1!$E$1,_Sheet1!B9)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" s="8">
+        <f>IF(_Area3_day_all!AM2="",0,_Area3_day_all!AM2)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L24" s="8">
+        <f>IF(_Sheet1!D9="",_Sheet1!$E$1,_Sheet1!D9)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="30"/>
+    </row>
+    <row r="25" ht="30" customHeight="1" spans="1:13">
+      <c r="A25" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="8">
+        <f>IF(_Sheet1!A10="",_Sheet1!$E$1,_Sheet1!A10)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="8">
+        <f>IF(_Sheet1!B10="",_Sheet1!$E$1,_Sheet1!B10)</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="8">
+        <f>IF(_Area3_day_all!AN2="",0,_Area3_day_all!AN2)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="9">
+        <f>IF(_Sheet1!D10="",_Sheet1!$E$1,_Sheet1!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="30"/>
+    </row>
+    <row r="26" ht="30" customHeight="1" spans="1:13">
+      <c r="A26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="8">
+        <f>IF(_Sheet1!A11="",_Sheet1!$E$1,_Sheet1!A11)</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="8">
+        <f>IF(_Sheet1!B11="",_Sheet1!$E$1,_Sheet1!B11)</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J26" s="8">
+        <f>IF(_Area3_day_all!AO2="",0,_Area3_day_all!AO2)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="8">
+        <f>IF(_Sheet1!D11="",_Sheet1!$E$1,_Sheet1!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="30"/>
+    </row>
+    <row r="27" ht="30" customHeight="1" spans="1:13">
+      <c r="A27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="8">
+        <f>IF(_Sheet1!A12="",_Sheet1!$E$1,_Sheet1!A12)</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="8">
+        <f>IF(_Sheet1!B12="",_Sheet1!$E$1,_Sheet1!B12)</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" s="8">
+        <f>IF(_Area3_day_all!AP2="",0,_Area3_day_all!AP2)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L27" s="9">
+        <f>IF(_Sheet1!D12="",_Sheet1!$E$1,_Sheet1!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="30"/>
+    </row>
+    <row r="28" ht="30" customHeight="1" spans="1:13">
+      <c r="A28" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="8">
+        <f>IF(_Sheet1!A13="",_Sheet1!$E$1,_Sheet1!A13)</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="8">
+        <f>IF(_Sheet1!B13="",_Sheet1!$E$1,_Sheet1!B13)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" s="8">
+        <f>IF(_Area3_day_all!AQ2="",0,_Area3_day_all!AQ2)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L28" s="8">
+        <f>IF(_Sheet1!D13="",_Sheet1!$E$1,_Sheet1!D13)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="30"/>
+    </row>
+    <row r="29" ht="30" customHeight="1" spans="1:13">
+      <c r="A29" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="8">
+        <f>IF(_Sheet1!A14="",_Sheet1!$E$1,_Sheet1!A14)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H29" s="8">
+        <f>IF(_Sheet1!B14="",_Sheet1!$E$1,_Sheet1!B14)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" s="8">
+        <f>IF(_Area3_day_all!AR2="",0,_Area3_day_all!AR2)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L29" s="9">
+        <f>IF(_Sheet1!D14="",_Sheet1!$E$1,_Sheet1!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="30"/>
+    </row>
+    <row r="30" ht="30" customHeight="1" spans="1:13">
+      <c r="A30" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="8">
+        <f>IF(_Sheet1!A15="",_Sheet1!$E$1,_Sheet1!A15)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="8">
+        <f>IF(_Sheet1!B15="",_Sheet1!$E$1,_Sheet1!B15)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="8">
+        <f>IF(_Area3_day_all!AS2="",0,_Area3_day_all!AS2)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="8">
+        <f>IF(_Sheet1!D15="",_Sheet1!$E$1,_Sheet1!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="30"/>
+    </row>
+    <row r="31" ht="30" customHeight="1" spans="1:13">
+      <c r="A31" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="8">
+        <f>IF(_Sheet1!A16="",_Sheet1!$E$1,_Sheet1!A16)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="8">
+        <f>IF(_Sheet1!B16="",_Sheet1!$E$1,_Sheet1!B16)</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J31" s="8">
+        <f>IF(_Area3_day_all!AT2="",0,_Area3_day_all!AT2)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="L31" s="9">
+        <f>IF(_Sheet1!D16="",_Sheet1!$E$1,_Sheet1!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="30"/>
+    </row>
+    <row r="32" ht="30" customHeight="1" spans="1:64">
+      <c r="A32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="10">
+        <f>IF(_Sheet1!A17="",_Sheet1!$E$1,_Sheet1!A17)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="24"/>
+      <c r="K32" s="10">
+        <f>IF(_Sheet1!C17="",_Sheet1!$E$1,_Sheet1!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="11"/>
+      <c r="M32" s="29"/>
+      <c r="P32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>19</v>
+      </c>
+      <c r="R32" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" t="s">
+        <v>18</v>
+      </c>
+      <c r="T32" t="s">
+        <v>19</v>
+      </c>
+      <c r="U32" t="s">
+        <v>20</v>
+      </c>
+      <c r="V32" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" t="s">
+        <v>19</v>
+      </c>
+      <c r="X32" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>18</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>19</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BD32" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>18</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>19</v>
+      </c>
+      <c r="BI32" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ32" t="s">
+        <v>18</v>
+      </c>
+      <c r="BK32" t="s">
+        <v>19</v>
+      </c>
+      <c r="BL32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:13">
+      <c r="A33" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="10">
+        <f>IF(_Sheet1!A18="",_Sheet1!$E$1,_Sheet1!A18)</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="24"/>
+      <c r="K33" s="10">
+        <f>IF(_Sheet1!C18="",_Sheet1!$E$1,_Sheet1!C18)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="11"/>
+      <c r="M33" s="29"/>
+    </row>
+    <row r="34" ht="30" customHeight="1" spans="1:13">
+      <c r="A34" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="10">
+        <f>IF(_Sheet1!A19="",_Sheet1!$E$1,_Sheet1!A19)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="24"/>
+      <c r="K34" s="10">
+        <f>IF(_Sheet1!C19="",_Sheet1!$E$1,_Sheet1!C19)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="11"/>
+      <c r="M34" s="29"/>
+    </row>
+    <row r="35" ht="30" customHeight="1" spans="1:13">
+      <c r="A35" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="10">
+        <f>IF(_Sheet1!A20="",_Sheet1!$E$1,_Sheet1!A20)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="24"/>
+      <c r="K35" s="10">
+        <f>IF(_Sheet1!C20="",_Sheet1!$E$1,_Sheet1!C20)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="11"/>
+      <c r="M35" s="29"/>
+    </row>
+    <row r="36" ht="30" customHeight="1" spans="1:13">
+      <c r="A36" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="24"/>
+      <c r="G36" s="10">
+        <f>IF(_Sheet1!A21="",_Sheet1!$E$1,_Sheet1!A21)</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="24"/>
+      <c r="K36" s="10">
+        <f>IF(_Sheet1!C21="",_Sheet1!$E$1,_Sheet1!C21)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="29"/>
+    </row>
+    <row r="37" ht="30" customHeight="1" spans="1:13">
+      <c r="A37" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="24"/>
+      <c r="G37" s="10">
+        <f>IF(_Sheet1!A22="",_Sheet1!$E$1,_Sheet1!A22)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="10">
+        <f>IF(_Sheet1!C22="",_Sheet1!$E$1,_Sheet1!C22)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="11"/>
+      <c r="M37" s="29"/>
+    </row>
+    <row r="38" ht="30" customHeight="1" spans="1:13">
+      <c r="A38" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="10">
+        <f>IF(_Sheet1!A23="",_Sheet1!$E$1,_Sheet1!A23)</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="24"/>
+      <c r="K38" s="10">
+        <f>IF(_Sheet1!C23="",_Sheet1!$E$1,_Sheet1!C23)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="11"/>
+      <c r="M38" s="29"/>
+    </row>
+    <row r="39" ht="30" customHeight="1" spans="1:13">
+      <c r="A39" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="24"/>
+      <c r="G39" s="10">
+        <f>IF(_Sheet1!A24="",_Sheet1!$E$1,_Sheet1!A24)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="24"/>
+      <c r="K39" s="10">
+        <f>IF(_Sheet1!C24="",_Sheet1!$E$1,_Sheet1!C24)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="11"/>
+      <c r="M39" s="29"/>
+    </row>
+    <row r="40" ht="30" customHeight="1" spans="1:13">
+      <c r="A40" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="24"/>
+      <c r="G40" s="10">
+        <f>IF(_Sheet1!A25="",_Sheet1!$E$1,_Sheet1!A25)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="24"/>
+      <c r="K40" s="10">
+        <f>IF(_Sheet1!C25="",_Sheet1!$E$1,_Sheet1!C25)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="11"/>
+      <c r="M40" s="29"/>
+    </row>
+    <row r="41" ht="30" customHeight="1" spans="1:13">
+      <c r="A41" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="10">
+        <f>IF(_Sheet1!A26="",_Sheet1!$E$1,_Sheet1!A26)</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="24"/>
+      <c r="K41" s="10">
+        <f>IF(_Sheet1!C26="",_Sheet1!$E$1,_Sheet1!C26)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="11"/>
+      <c r="M41" s="29"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:13">
+      <c r="A42" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="10">
+        <f>IF(_Sheet1!A27="",_Sheet1!$E$1,_Sheet1!A27)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="24"/>
+      <c r="K42" s="10">
+        <f>IF(_Sheet1!C27="",_Sheet1!$E$1,_Sheet1!C27)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="11"/>
+      <c r="M42" s="29"/>
+    </row>
+    <row r="43" ht="30" customHeight="1" spans="1:13">
+      <c r="A43" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="10">
+        <f>IF(_Sheet1!A28="",_Sheet1!$E$1,_Sheet1!A28)</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="24"/>
+      <c r="K43" s="10">
+        <f>IF(_Sheet1!C28="",_Sheet1!$E$1,_Sheet1!C28)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="11"/>
+      <c r="M43" s="29"/>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="1:13">
+      <c r="A44" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="10">
+        <f>IF(_Sheet1!A29="",_Sheet1!$E$1,_Sheet1!A29)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="24"/>
+      <c r="K44" s="10">
+        <f>IF(_Sheet1!C29="",_Sheet1!$E$1,_Sheet1!C29)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="11"/>
+      <c r="M44" s="29"/>
+    </row>
+    <row r="45" ht="30" customHeight="1" spans="1:13">
+      <c r="A45" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="10">
+        <f>IF(_Sheet1!A30="",_Sheet1!$E$1,_Sheet1!A30)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="24"/>
+      <c r="K45" s="10">
+        <f>IF(_Sheet1!C30="",_Sheet1!$E$1,_Sheet1!C30)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="29"/>
+    </row>
+    <row r="46" ht="30" customHeight="1" spans="1:13">
+      <c r="A46" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="10">
+        <f>IF(_Sheet1!A31="",_Sheet1!$E$1,_Sheet1!A31)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="10">
+        <f>IF(_Sheet1!C31="",_Sheet1!$E$1,_Sheet1!C31)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="11"/>
+      <c r="M46" s="29"/>
+    </row>
+    <row r="47" ht="30" customHeight="1" spans="1:13">
+      <c r="A47" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="10">
+        <f>IF(_Sheet1!A32="",_Sheet1!$E$1,_Sheet1!A32)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="10">
+        <f>IF(_Sheet1!C32="",_Sheet1!$E$1,_Sheet1!C32)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="11"/>
+      <c r="M47" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="149">
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AA5"/>
     <mergeCell ref="AO5:AT5"/>
@@ -2617,32 +3905,104 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="K13:L13"/>
     <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="K14:L14"/>
     <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:L20"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
     <mergeCell ref="A1:BM3"/>
     <mergeCell ref="A4:L5"/>
   </mergeCells>
@@ -2658,13 +4018,551 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="12.725" customWidth="1"/>
+    <col min="4" max="4" width="12.2666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="30" customHeight="1" spans="1:5">
+      <c r="A1" s="8" t="str">
+        <f>IF(_Area3_day_all!O2="","",_Area3_day_all!O2)</f>
+        <v/>
+      </c>
+      <c r="B1" s="8" t="str">
+        <f>IF(_Area_month_all!AE2="","",_Area_month_all!AE2)</f>
+        <v/>
+      </c>
+      <c r="C1" s="8" t="str">
+        <f>IF(_Area3_day_all!W2="","",_Area3_day_all!W2)</f>
+        <v/>
+      </c>
+      <c r="D1" s="8" t="str">
+        <f>IF(_Area_month_all!AM2="","",_Area_month_all!AM2)</f>
+        <v/>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A2" s="8" t="str">
+        <f>IF(_Area3_day_all!P2="","",_Area3_day_all!P2)</f>
+        <v/>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>IF(_Area_month_all!AF2="","",_Area_month_all!AF2)</f>
+        <v/>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>IF(_Area3_day_all!X2="","",_Area3_day_all!X2)</f>
+        <v/>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>IFERROR(IF(_Area_month_all!AN2="","",_Area_month_all!AN2),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A3" s="8" t="str">
+        <f>IF(_Area3_day_all!Q2="","",_Area3_day_all!Q2)</f>
+        <v/>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f>IF(_Area_month_all!AG2="","",_Area_month_all!AG2)</f>
+        <v/>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>IF(_Area3_day_all!Y2="","",_Area3_day_all!Y2)</f>
+        <v/>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>IF(_Area_month_all!AO2="","",_Area_month_all!AO2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A4" s="8" t="str">
+        <f>IF(_Area3_day_all!R2="","",_Area3_day_all!R2)</f>
+        <v/>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f>IF(_Area_month_all!AH2="","",_Area_month_all!AH2)</f>
+        <v/>
+      </c>
+      <c r="C4" s="8" t="str">
+        <f>IF(_Area3_day_all!Z2="","",_Area3_day_all!Z2)</f>
+        <v/>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>IF(_Area_month_all!AP2="","",_Area_month_all!AP2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A5" s="8" t="str">
+        <f>IF(_Area3_day_all!S2="","",_Area3_day_all!S2)</f>
+        <v/>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f>IF(_Area_month_all!AI2="","",_Area_month_all!AI2)</f>
+        <v/>
+      </c>
+      <c r="C5" s="8" t="str">
+        <f>IF(_Area3_day_all!AA2="","",_Area3_day_all!AA2)</f>
+        <v/>
+      </c>
+      <c r="D5" s="8" t="str">
+        <f>IF(_Area_month_all!AQ2="","",_Area_month_all!AQ2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A6" s="8" t="str">
+        <f>IF(_Area3_day_all!T2="","",_Area3_day_all!T2)</f>
+        <v/>
+      </c>
+      <c r="B6" s="8" t="str">
+        <f>IF(_Area_month_all!AJ2="","",_Area_month_all!AJ2)</f>
+        <v/>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>IF(_Area3_day_all!AB2="","",_Area3_day_all!AB2)</f>
+        <v/>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f>IF(_Area_month_all!AR2="","",_Area_month_all!AR2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A7" s="8" t="str">
+        <f>IF(_Area3_day_all!U2="","",_Area3_day_all!U2)</f>
+        <v/>
+      </c>
+      <c r="B7" s="8" t="str">
+        <f>IF(_Area_month_all!AK2="","",_Area_month_all!AK2)</f>
+        <v/>
+      </c>
+      <c r="C7" s="8" t="str">
+        <f>IF(_Area3_day_all!AC2="","",_Area3_day_all!AC2)</f>
+        <v/>
+      </c>
+      <c r="D7" s="8" t="str">
+        <f>IF(_Area_month_all!AS2="","",_Area_month_all!AS2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A8" s="8" t="str">
+        <f>IF(_Area3_day_all!V2="","",_Area3_day_all!V2)</f>
+        <v/>
+      </c>
+      <c r="B8" s="8" t="str">
+        <f>IF(_Area_month_all!AL2="","",_Area_month_all!AL2)</f>
+        <v/>
+      </c>
+      <c r="C8" s="8" t="str">
+        <f>IF(_Area3_day_all!AD2="","",_Area3_day_all!AD2)</f>
+        <v/>
+      </c>
+      <c r="D8" s="9" t="str">
+        <f>IF(_Area_month_all!AT2="","",_Area_month_all!AT2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A9" s="8" t="str">
+        <f>IF(_Area3_day_all!AE2="","",_Area3_day_all!AE2)</f>
+        <v/>
+      </c>
+      <c r="B9" s="8" t="str">
+        <f>IF(_Area_month_all!AU2="","",_Area_month_all!AU2)</f>
+        <v/>
+      </c>
+      <c r="C9" s="8" t="str">
+        <f>IF(_Area3_day_all!AM2="","",_Area3_day_all!AM2)</f>
+        <v/>
+      </c>
+      <c r="D9" s="8" t="str">
+        <f>IF(_Area_month_all!BC2="","",_Area_month_all!BC2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A10" s="8" t="str">
+        <f>IF(_Area3_day_all!AF2="","",_Area3_day_all!AF2)</f>
+        <v/>
+      </c>
+      <c r="B10" s="8" t="str">
+        <f>IF(_Area_month_all!AV2="","",_Area_month_all!AV2)</f>
+        <v/>
+      </c>
+      <c r="C10" s="8" t="str">
+        <f>IF(_Area3_day_all!AN2="","",_Area3_day_all!AN2)</f>
+        <v/>
+      </c>
+      <c r="D10" s="9" t="str">
+        <f>IF(_Area_month_all!BD2="","",_Area_month_all!BD2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A11" s="8" t="str">
+        <f>IF(_Area3_day_all!AG2="","",_Area3_day_all!AG2)</f>
+        <v/>
+      </c>
+      <c r="B11" s="8" t="str">
+        <f>IF(_Area_month_all!AW2="","",_Area_month_all!AW2)</f>
+        <v/>
+      </c>
+      <c r="C11" s="8" t="str">
+        <f>IF(_Area3_day_all!AO2="","",_Area3_day_all!AO2)</f>
+        <v/>
+      </c>
+      <c r="D11" s="8" t="str">
+        <f>IF(_Area_month_all!BE2="","",_Area_month_all!BE2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A12" s="8" t="str">
+        <f>IF(_Area3_day_all!AH2="","",_Area3_day_all!AH2)</f>
+        <v/>
+      </c>
+      <c r="B12" s="8" t="str">
+        <f>IF(_Area_month_all!AX2="","",_Area_month_all!AX2)</f>
+        <v/>
+      </c>
+      <c r="C12" s="8" t="str">
+        <f>IF(_Area3_day_all!AP2="","",_Area3_day_all!AP2)</f>
+        <v/>
+      </c>
+      <c r="D12" s="9" t="str">
+        <f>IF(_Area_month_all!BF2="","",_Area_month_all!BF2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A13" s="8" t="str">
+        <f>IF(_Area3_day_all!AI2="","",_Area3_day_all!AI2)</f>
+        <v/>
+      </c>
+      <c r="B13" s="8" t="str">
+        <f>IF(_Area_month_all!AY2="","",_Area_month_all!AY2)</f>
+        <v/>
+      </c>
+      <c r="C13" s="8" t="str">
+        <f>IF(_Area3_day_all!AQ2="","",_Area3_day_all!AQ2)</f>
+        <v/>
+      </c>
+      <c r="D13" s="8" t="str">
+        <f>IF(_Area_month_all!BG2="","",_Area_month_all!BG2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A14" s="8" t="str">
+        <f>IF(_Area3_day_all!AJ2="","",_Area3_day_all!AJ2)</f>
+        <v/>
+      </c>
+      <c r="B14" s="8" t="str">
+        <f>IF(_Area_month_all!AZ2="","",_Area_month_all!AZ2)</f>
+        <v/>
+      </c>
+      <c r="C14" s="8" t="str">
+        <f>IF(_Area3_day_all!AR2="","",_Area3_day_all!AR2)</f>
+        <v/>
+      </c>
+      <c r="D14" s="9" t="str">
+        <f>IF(_Area_month_all!BH2="","",_Area_month_all!BH2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A15" s="8" t="str">
+        <f>IF(_Area3_day_all!AK2="","",_Area3_day_all!AK2)</f>
+        <v/>
+      </c>
+      <c r="B15" s="8" t="str">
+        <f>IF(_Area_month_all!BA2="","",_Area_month_all!BA2)</f>
+        <v/>
+      </c>
+      <c r="C15" s="8" t="str">
+        <f>IF(_Area3_day_all!AS2="","",_Area3_day_all!AS2)</f>
+        <v/>
+      </c>
+      <c r="D15" s="8" t="str">
+        <f>IF(_Area_month_all!BI2="","",_Area_month_all!BI2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A16" s="8" t="str">
+        <f>IF(_Area3_day_all!AL2="","",_Area3_day_all!AL2)</f>
+        <v/>
+      </c>
+      <c r="B16" s="8" t="str">
+        <f>IF(_Area_month_all!BB2="","",_Area_month_all!BB2)</f>
+        <v/>
+      </c>
+      <c r="C16" s="8" t="str">
+        <f>IF(_Area3_day_all!AT2="","",_Area3_day_all!AT2)</f>
+        <v/>
+      </c>
+      <c r="D16" s="9" t="str">
+        <f>IF(_Area_month_all!BJ2="","",_Area_month_all!BJ2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A17" s="10" t="str">
+        <f>IF(_Area3_day_all!AU2="","",_Area3_day_all!AU2/3600)</f>
+        <v/>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="10" t="str">
+        <f>IF(_Area_month_all!BK2="","",_Area_month_all!BK2/3600)</f>
+        <v/>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A18" s="10" t="str">
+        <f>IF(_Area3_day_all!AV2="","",_Area3_day_all!AV2/3600)</f>
+        <v/>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="10" t="str">
+        <f>IF(_Area_month_all!BL2="","",_Area_month_all!BL2/3600)</f>
+        <v/>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A19" s="10" t="str">
+        <f>IF(_Area3_day_all!AW2="","",_Area3_day_all!AW2/3600)</f>
+        <v/>
+      </c>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="str">
+        <f>IF(_Area_month_all!BM2="","",_Area_month_all!BM2/3600)</f>
+        <v/>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A20" s="10" t="str">
+        <f>IF(_Area3_day_all!AX2="","",_Area3_day_all!AX2/3600)</f>
+        <v/>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="10" t="str">
+        <f>IF(_Area_month_all!BN2="","",_Area_month_all!BN2/3600)</f>
+        <v/>
+      </c>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A21" s="10" t="str">
+        <f>IF(_Area3_day_all!AY2="","",_Area3_day_all!AY2/3600)</f>
+        <v/>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10" t="str">
+        <f>IF(_Area_month_all!BO2="","",_Area_month_all!BO2/3600)</f>
+        <v/>
+      </c>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A22" s="10" t="str">
+        <f>IF(_Area3_day_all!AZ2="","",_Area3_day_all!AZ2/3600)</f>
+        <v/>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="10" t="str">
+        <f>IF(_Area_month_all!BP2="","",_Area_month_all!BP2/3600)</f>
+        <v/>
+      </c>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A23" s="10" t="str">
+        <f>IF(_Area3_day_all!BA2="","",_Area3_day_all!BA2/3600)</f>
+        <v/>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="10" t="str">
+        <f>IF(_Area_month_all!BQ2="","",_Area_month_all!BQ2/3600)</f>
+        <v/>
+      </c>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A24" s="10" t="str">
+        <f>IF(_Area3_day_all!BB2="","",_Area3_day_all!BB2/3600)</f>
+        <v/>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="str">
+        <f>IF(_Area_month_all!BR2="","",_Area_month_all!BR2/3600)</f>
+        <v/>
+      </c>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A25" s="10" t="str">
+        <f>IF(_Area3_day_all!BC2="","",_Area3_day_all!BC2/3600)</f>
+        <v/>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="10" t="str">
+        <f>IF(_Area_month_all!BS2="","",_Area_month_all!BS2/3600)</f>
+        <v/>
+      </c>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A26" s="10" t="str">
+        <f>IF(_Area3_day_all!BD2="","",_Area3_day_all!BD2/3600)</f>
+        <v/>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="10" t="str">
+        <f>IF(_Area_month_all!BT2="","",_Area_month_all!BT2/3600)</f>
+        <v/>
+      </c>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A27" s="10" t="str">
+        <f>IF(_Area3_day_all!BE2="","",_Area3_day_all!BE2/3600)</f>
+        <v/>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="10" t="str">
+        <f>IF(_Area_month_all!BU2="","",_Area_month_all!BU2/3600)</f>
+        <v/>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A28" s="10" t="str">
+        <f>IF(_Area3_day_all!BF2="","",_Area3_day_all!BF2/3600)</f>
+        <v/>
+      </c>
+      <c r="B28" s="11"/>
+      <c r="C28" s="10" t="str">
+        <f>IF(_Area_month_all!BV2="","",_Area_month_all!BV2/3600)</f>
+        <v/>
+      </c>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A29" s="10" t="str">
+        <f>IF(_Area3_day_all!BG2="","",_Area3_day_all!BG2/3600)</f>
+        <v/>
+      </c>
+      <c r="B29" s="11"/>
+      <c r="C29" s="10" t="str">
+        <f>IF(_Area_month_all!BW2="","",_Area_month_all!BW2/3600)</f>
+        <v/>
+      </c>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A30" s="10" t="str">
+        <f>IF(_Area3_day_all!BH2="","",_Area3_day_all!BH2/3600)</f>
+        <v/>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="10" t="str">
+        <f>IF(_Area_month_all!BX2="","",_Area_month_all!BX2/3600)</f>
+        <v/>
+      </c>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A31" s="10" t="str">
+        <f>IF(_Area3_day_all!BI2="","",_Area3_day_all!BI2/3600)</f>
+        <v/>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="10" t="str">
+        <f>IF(_Area_month_all!BY2="","",_Area_month_all!BY2/3600)</f>
+        <v/>
+      </c>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="1" ht="30" customHeight="1" spans="1:4">
+      <c r="A32" s="10" t="str">
+        <f>IF(_Area3_day_all!BJ2="","",_Area3_day_all!BJ2/3600)</f>
+        <v/>
+      </c>
+      <c r="B32" s="11"/>
+      <c r="C32" s="10" t="str">
+        <f>IF(_Area_month_all!BZ2="","",_Area_month_all!BZ2/3600)</f>
+        <v/>
+      </c>
+      <c r="D32" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:BJ8"/>
+  <sheetViews>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BI3" sqref="BI3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="33.9083333333333" customWidth="1"/>
     <col min="3" max="4" width="36.0916666666667" customWidth="1"/>
@@ -2672,53 +4570,222 @@
     <col min="7" max="7" width="36.0916666666667" customWidth="1"/>
     <col min="8" max="11" width="43.9083333333333" customWidth="1"/>
     <col min="12" max="14" width="42.725" customWidth="1"/>
-    <col min="16" max="18" width="43.9083333333333" customWidth="1"/>
-    <col min="19" max="21" width="42.725" customWidth="1"/>
+    <col min="15" max="22" width="48.2666666666667" customWidth="1"/>
+    <col min="23" max="30" width="47.0916666666667" customWidth="1"/>
+    <col min="31" max="38" width="48.2666666666667" customWidth="1"/>
+    <col min="39" max="46" width="47.0916666666667" customWidth="1"/>
+    <col min="47" max="62" width="40.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="3" t="s">
-        <v>38</v>
+    <row r="1" spans="1:62">
+      <c r="A1" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
+        <v>75</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="24:25">
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+    </row>
+    <row r="3" spans="24:25">
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+    </row>
+    <row r="4" spans="24:25">
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+    </row>
+    <row r="5" spans="24:25">
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+    </row>
+    <row r="6" spans="24:25">
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+    </row>
+    <row r="7" spans="24:25">
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+    </row>
+    <row r="8" spans="24:25">
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2726,13 +4793,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:BZ1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BG2" sqref="BG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2749,98 +4816,247 @@
     <col min="22" max="24" width="41.6333333333333" customWidth="1"/>
     <col min="25" max="27" width="42.725" customWidth="1"/>
     <col min="28" max="30" width="41.6333333333333" customWidth="1"/>
+    <col min="31" max="38" width="48.2666666666667" customWidth="1"/>
+    <col min="39" max="46" width="47.0916666666667" customWidth="1"/>
+    <col min="47" max="54" width="48.2666666666667" customWidth="1"/>
+    <col min="55" max="62" width="47.0916666666667" customWidth="1"/>
+    <col min="63" max="78" width="40.3666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:78">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>47</v>
+        <v>75</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AY1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BD1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BI1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="BM1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="BS1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="BT1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="BU1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="BV1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="BW1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="BY1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BZ1" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2849,13 +5065,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AY1"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AY1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2880,148 +5096,148 @@
   <sheetData>
     <row r="1" spans="1:51">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="AS1" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="AW1" s="2" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="AX1" s="2" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3030,7 +5246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
